--- a/data/data_prepared.xlsx
+++ b/data/data_prepared.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
   <si>
     <t>ProbandID</t>
   </si>
@@ -139,6 +139,12 @@
     <t>True error</t>
   </si>
   <si>
+    <t>to proposed order</t>
+  </si>
+  <si>
+    <t>to closest optimal order</t>
+  </si>
+  <si>
     <t>LTQ1A</t>
   </si>
   <si>
@@ -182,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -192,9 +198,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,10 +274,10 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,14 +1236,14 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -18932,7 +18939,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="12.86"/>
+    <col customWidth="1" min="2" max="2" width="16.29"/>
+    <col customWidth="1" min="3" max="4" width="12.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18940,9 +18948,12 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -18950,144 +18961,443 @@
       <c r="A2" s="8">
         <v>2.0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14">
         <v>0.8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="14">
         <v>0.4</v>
       </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="8">
         <v>3.0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14">
         <v>0.8</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="14">
         <v>0.3</v>
       </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="8">
         <v>4.0</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="14">
         <v>0.2</v>
       </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="8">
         <v>5.0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="14">
         <v>0.5</v>
       </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="8">
         <v>6.0</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="14">
         <v>0.3</v>
       </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="8">
         <v>7.0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14">
         <v>0.8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="14">
         <v>0.7</v>
       </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="8">
         <v>8.0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14">
         <v>0.8</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="14">
         <v>0.4</v>
       </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="8">
         <v>9.0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14">
         <v>0.6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="14">
         <v>0.3</v>
       </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="8">
         <v>10.0</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14">
         <v>0.8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="14">
         <v>0.5</v>
       </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="8">
         <v>11.0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14">
         <v>0.6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="14">
         <v>0.3</v>
       </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="8">
         <v>12.0</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14">
         <v>0.8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="14">
         <v>0.3</v>
       </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="8">
         <v>13.0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14">
         <v>0.8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="14">
         <v>0.4</v>
       </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="8">
         <v>14.0</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14">
         <v>0.2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="14">
         <v>0.3</v>
       </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19108,14 +19418,14 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -19319,30 +19629,30 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="8">
@@ -19683,34 +19993,34 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="15"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="15"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="15"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="15"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="15"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="15"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/data_prepared.xlsx
+++ b/data/data_prepared.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t>ProbandID</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>2_2_due_dates_real</t>
+  </si>
+  <si>
+    <t>2_1_assessment</t>
+  </si>
+  <si>
+    <t>2_2_assessment</t>
   </si>
   <si>
     <t>Type</t>
@@ -1252,25 +1258,25 @@
         <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -1664,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -21663,6 +21669,7 @@
     <col customWidth="1" min="7" max="7" width="18.43"/>
     <col customWidth="1" min="8" max="8" width="17.86"/>
     <col customWidth="1" min="9" max="9" width="18.43"/>
+    <col customWidth="1" min="10" max="11" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21693,6 +21700,12 @@
       <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="8">
@@ -21722,6 +21735,12 @@
       <c r="I2" s="8">
         <v>2.0</v>
       </c>
+      <c r="J2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
@@ -21751,6 +21770,12 @@
       <c r="I3" s="8">
         <v>3.0</v>
       </c>
+      <c r="J3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8">
@@ -21780,6 +21805,12 @@
       <c r="I4" s="8">
         <v>2.0</v>
       </c>
+      <c r="J4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
@@ -21809,6 +21840,12 @@
       <c r="I5" s="8">
         <v>3.0</v>
       </c>
+      <c r="J5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
@@ -21826,13 +21863,23 @@
       <c r="E6" s="15">
         <v>44508.666666666664</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7">
+        <v>0.0</v>
+      </c>
       <c r="G6" s="8">
         <v>1.0</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7">
+        <v>1.0</v>
+      </c>
       <c r="I6" s="8">
         <v>3.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -21863,6 +21910,12 @@
       <c r="I7" s="8">
         <v>3.0</v>
       </c>
+      <c r="J7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8">
@@ -21892,6 +21945,12 @@
       <c r="I8" s="8">
         <v>3.0</v>
       </c>
+      <c r="J8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
@@ -21921,6 +21980,12 @@
       <c r="I9" s="8">
         <v>4.0</v>
       </c>
+      <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
@@ -21950,6 +22015,12 @@
       <c r="I10" s="8">
         <v>2.0</v>
       </c>
+      <c r="J10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
@@ -21979,6 +22050,12 @@
       <c r="I11" s="8">
         <v>3.0</v>
       </c>
+      <c r="J11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
@@ -22008,6 +22085,12 @@
       <c r="I12" s="8">
         <v>3.0</v>
       </c>
+      <c r="J12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
@@ -22037,6 +22120,12 @@
       <c r="I13" s="8">
         <v>2.0</v>
       </c>
+      <c r="J13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
@@ -22066,3946 +22155,5922 @@
       <c r="I14" s="8">
         <v>3.0</v>
       </c>
+      <c r="J14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="8">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
       <c r="F15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
       <c r="F16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
       <c r="F17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="13"/>
       <c r="F18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
       <c r="F19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
       <c r="F20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
       <c r="F21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
       <c r="F22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
       <c r="F23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
       <c r="F24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="13"/>
       <c r="F25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="13"/>
       <c r="F26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="13"/>
       <c r="F27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
       <c r="F28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
       <c r="F29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
       <c r="F30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
       <c r="F31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
       <c r="F32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
       <c r="F33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="13"/>
       <c r="F34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" s="13"/>
       <c r="F35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="13"/>
       <c r="F36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="13"/>
       <c r="F37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="13"/>
       <c r="F38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="5"/>
       <c r="F39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="5"/>
       <c r="F40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="5"/>
       <c r="F41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="5"/>
       <c r="F42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
       <c r="F43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
       <c r="F44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
       <c r="F45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="5"/>
       <c r="F46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
       <c r="F47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="5"/>
       <c r="F48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="5"/>
       <c r="F49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="5"/>
       <c r="F50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="5"/>
       <c r="F51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="5"/>
       <c r="F52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
       <c r="F53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
       <c r="F54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
       <c r="F55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="5"/>
       <c r="F56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="5"/>
       <c r="F57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
       <c r="F58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="5"/>
       <c r="F59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="5"/>
       <c r="F60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
       <c r="F61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="5"/>
       <c r="F62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="5"/>
       <c r="F63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="5"/>
       <c r="F64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="5"/>
       <c r="F65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="5"/>
       <c r="F66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="5"/>
       <c r="F67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="5"/>
       <c r="F68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="5"/>
       <c r="F69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="5"/>
       <c r="F70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71">
       <c r="A71" s="5"/>
       <c r="F71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72">
       <c r="A72" s="5"/>
       <c r="F72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="5"/>
       <c r="F73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="5"/>
       <c r="F74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
     <row r="75">
       <c r="A75" s="5"/>
       <c r="F75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="5"/>
       <c r="F76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
       <c r="F77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="5"/>
       <c r="F78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="5"/>
       <c r="F79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="5"/>
       <c r="F80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="5"/>
       <c r="F81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="5"/>
       <c r="F82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="5"/>
       <c r="F83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="5"/>
       <c r="F84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="5"/>
       <c r="F85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="5"/>
       <c r="F86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="5"/>
       <c r="F87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="5"/>
       <c r="F88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="5"/>
       <c r="F89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="5"/>
       <c r="F90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="5"/>
       <c r="F91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="5"/>
       <c r="F92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="5"/>
       <c r="F93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="5"/>
       <c r="F94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="5"/>
       <c r="F95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="5"/>
       <c r="F96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="5"/>
       <c r="F97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="5"/>
       <c r="F98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="5"/>
       <c r="F99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="5"/>
       <c r="F100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="5"/>
       <c r="F101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="5"/>
       <c r="F102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="5"/>
       <c r="F103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="5"/>
       <c r="F104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="5"/>
       <c r="F105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
     </row>
     <row r="106">
       <c r="A106" s="5"/>
       <c r="F106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="5"/>
       <c r="F107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="5"/>
       <c r="F108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
     </row>
     <row r="109">
       <c r="A109" s="5"/>
       <c r="F109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
     </row>
     <row r="110">
       <c r="A110" s="5"/>
       <c r="F110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
     </row>
     <row r="111">
       <c r="A111" s="5"/>
       <c r="F111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
     </row>
     <row r="112">
       <c r="A112" s="5"/>
       <c r="F112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
     </row>
     <row r="113">
       <c r="A113" s="5"/>
       <c r="F113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
     </row>
     <row r="114">
       <c r="A114" s="5"/>
       <c r="F114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="5"/>
       <c r="F115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
     </row>
     <row r="116">
       <c r="A116" s="5"/>
       <c r="F116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
     </row>
     <row r="117">
       <c r="A117" s="5"/>
       <c r="F117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="5"/>
       <c r="F118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
     </row>
     <row r="119">
       <c r="A119" s="5"/>
       <c r="F119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
     </row>
     <row r="120">
       <c r="A120" s="5"/>
       <c r="F120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
     </row>
     <row r="121">
       <c r="A121" s="5"/>
       <c r="F121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
     </row>
     <row r="122">
       <c r="A122" s="5"/>
       <c r="F122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
     </row>
     <row r="123">
       <c r="A123" s="5"/>
       <c r="F123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
     </row>
     <row r="124">
       <c r="A124" s="5"/>
       <c r="F124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
     </row>
     <row r="125">
       <c r="A125" s="5"/>
       <c r="F125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
     </row>
     <row r="126">
       <c r="A126" s="5"/>
       <c r="F126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
     </row>
     <row r="127">
       <c r="A127" s="5"/>
       <c r="F127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
     </row>
     <row r="128">
       <c r="A128" s="5"/>
       <c r="F128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
     </row>
     <row r="129">
       <c r="A129" s="5"/>
       <c r="F129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
     </row>
     <row r="130">
       <c r="A130" s="5"/>
       <c r="F130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
     </row>
     <row r="131">
       <c r="A131" s="5"/>
       <c r="F131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
     </row>
     <row r="132">
       <c r="A132" s="5"/>
       <c r="F132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
     </row>
     <row r="133">
       <c r="A133" s="5"/>
       <c r="F133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
     </row>
     <row r="134">
       <c r="A134" s="5"/>
       <c r="F134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
     </row>
     <row r="135">
       <c r="A135" s="5"/>
       <c r="F135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
     </row>
     <row r="136">
       <c r="A136" s="5"/>
       <c r="F136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
     </row>
     <row r="137">
       <c r="A137" s="5"/>
       <c r="F137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
     </row>
     <row r="138">
       <c r="A138" s="5"/>
       <c r="F138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
     </row>
     <row r="139">
       <c r="A139" s="5"/>
       <c r="F139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
     </row>
     <row r="140">
       <c r="A140" s="5"/>
       <c r="F140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
     </row>
     <row r="141">
       <c r="A141" s="5"/>
       <c r="F141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
     </row>
     <row r="142">
       <c r="A142" s="5"/>
       <c r="F142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
     </row>
     <row r="143">
       <c r="A143" s="5"/>
       <c r="F143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
     </row>
     <row r="144">
       <c r="A144" s="5"/>
       <c r="F144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
     </row>
     <row r="145">
       <c r="A145" s="5"/>
       <c r="F145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
     </row>
     <row r="146">
       <c r="A146" s="5"/>
       <c r="F146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
     </row>
     <row r="147">
       <c r="A147" s="5"/>
       <c r="F147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
     </row>
     <row r="148">
       <c r="A148" s="5"/>
       <c r="F148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
     </row>
     <row r="149">
       <c r="A149" s="5"/>
       <c r="F149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
     </row>
     <row r="150">
       <c r="A150" s="5"/>
       <c r="F150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
     </row>
     <row r="151">
       <c r="A151" s="5"/>
       <c r="F151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
     </row>
     <row r="152">
       <c r="A152" s="5"/>
       <c r="F152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
     </row>
     <row r="153">
       <c r="A153" s="5"/>
       <c r="F153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
     </row>
     <row r="154">
       <c r="A154" s="5"/>
       <c r="F154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
     </row>
     <row r="155">
       <c r="A155" s="5"/>
       <c r="F155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
     </row>
     <row r="156">
       <c r="A156" s="5"/>
       <c r="F156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
     </row>
     <row r="157">
       <c r="A157" s="5"/>
       <c r="F157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
     </row>
     <row r="158">
       <c r="A158" s="5"/>
       <c r="F158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
     </row>
     <row r="159">
       <c r="A159" s="5"/>
       <c r="F159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
     </row>
     <row r="160">
       <c r="A160" s="5"/>
       <c r="F160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
     </row>
     <row r="161">
       <c r="A161" s="5"/>
       <c r="F161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
     </row>
     <row r="162">
       <c r="A162" s="5"/>
       <c r="F162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
     </row>
     <row r="163">
       <c r="A163" s="5"/>
       <c r="F163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
     </row>
     <row r="164">
       <c r="A164" s="5"/>
       <c r="F164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
     </row>
     <row r="165">
       <c r="A165" s="5"/>
       <c r="F165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
     </row>
     <row r="166">
       <c r="A166" s="5"/>
       <c r="F166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
     </row>
     <row r="167">
       <c r="A167" s="5"/>
       <c r="F167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
     </row>
     <row r="168">
       <c r="A168" s="5"/>
       <c r="F168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
     </row>
     <row r="169">
       <c r="A169" s="5"/>
       <c r="F169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
     </row>
     <row r="170">
       <c r="A170" s="5"/>
       <c r="F170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
     </row>
     <row r="171">
       <c r="A171" s="5"/>
       <c r="F171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
     </row>
     <row r="172">
       <c r="A172" s="5"/>
       <c r="F172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
     </row>
     <row r="173">
       <c r="A173" s="5"/>
       <c r="F173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
     </row>
     <row r="174">
       <c r="A174" s="5"/>
       <c r="F174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
     </row>
     <row r="175">
       <c r="A175" s="5"/>
       <c r="F175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
     </row>
     <row r="176">
       <c r="A176" s="5"/>
       <c r="F176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
     </row>
     <row r="177">
       <c r="A177" s="5"/>
       <c r="F177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
     </row>
     <row r="178">
       <c r="A178" s="5"/>
       <c r="F178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
     </row>
     <row r="179">
       <c r="A179" s="5"/>
       <c r="F179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
     </row>
     <row r="180">
       <c r="A180" s="5"/>
       <c r="F180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
     </row>
     <row r="181">
       <c r="A181" s="5"/>
       <c r="F181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
     </row>
     <row r="182">
       <c r="A182" s="5"/>
       <c r="F182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
     </row>
     <row r="183">
       <c r="A183" s="5"/>
       <c r="F183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
     </row>
     <row r="184">
       <c r="A184" s="5"/>
       <c r="F184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
     </row>
     <row r="185">
       <c r="A185" s="5"/>
       <c r="F185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
     </row>
     <row r="186">
       <c r="A186" s="5"/>
       <c r="F186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
     </row>
     <row r="187">
       <c r="A187" s="5"/>
       <c r="F187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
     </row>
     <row r="188">
       <c r="A188" s="5"/>
       <c r="F188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
     </row>
     <row r="189">
       <c r="A189" s="5"/>
       <c r="F189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
     </row>
     <row r="190">
       <c r="A190" s="5"/>
       <c r="F190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
     </row>
     <row r="191">
       <c r="A191" s="5"/>
       <c r="F191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
     </row>
     <row r="192">
       <c r="A192" s="5"/>
       <c r="F192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
     </row>
     <row r="193">
       <c r="A193" s="5"/>
       <c r="F193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
     </row>
     <row r="194">
       <c r="A194" s="5"/>
       <c r="F194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
       <c r="F195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
     </row>
     <row r="196">
       <c r="A196" s="5"/>
       <c r="F196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
     </row>
     <row r="197">
       <c r="A197" s="5"/>
       <c r="F197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
     </row>
     <row r="198">
       <c r="A198" s="5"/>
       <c r="F198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
     </row>
     <row r="199">
       <c r="A199" s="5"/>
       <c r="F199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
     </row>
     <row r="200">
       <c r="A200" s="5"/>
       <c r="F200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
     </row>
     <row r="201">
       <c r="A201" s="5"/>
       <c r="F201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
     </row>
     <row r="202">
       <c r="A202" s="5"/>
       <c r="F202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
     </row>
     <row r="203">
       <c r="A203" s="5"/>
       <c r="F203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
     </row>
     <row r="204">
       <c r="A204" s="5"/>
       <c r="F204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
     </row>
     <row r="205">
       <c r="A205" s="5"/>
       <c r="F205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
     </row>
     <row r="206">
       <c r="A206" s="5"/>
       <c r="F206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
     </row>
     <row r="207">
       <c r="A207" s="5"/>
       <c r="F207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
     </row>
     <row r="208">
       <c r="A208" s="5"/>
       <c r="F208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
     </row>
     <row r="209">
       <c r="A209" s="5"/>
       <c r="F209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
     </row>
     <row r="210">
       <c r="A210" s="5"/>
       <c r="F210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
     </row>
     <row r="211">
       <c r="A211" s="5"/>
       <c r="F211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
     </row>
     <row r="212">
       <c r="A212" s="5"/>
       <c r="F212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
     </row>
     <row r="213">
       <c r="A213" s="5"/>
       <c r="F213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
     </row>
     <row r="214">
       <c r="A214" s="5"/>
       <c r="F214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
     </row>
     <row r="215">
       <c r="A215" s="5"/>
       <c r="F215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
     </row>
     <row r="216">
       <c r="A216" s="5"/>
       <c r="F216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
     </row>
     <row r="217">
       <c r="A217" s="5"/>
       <c r="F217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
     </row>
     <row r="218">
       <c r="A218" s="5"/>
       <c r="F218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
     </row>
     <row r="219">
       <c r="A219" s="5"/>
       <c r="F219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
     </row>
     <row r="220">
       <c r="A220" s="5"/>
       <c r="F220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
     </row>
     <row r="221">
       <c r="A221" s="5"/>
       <c r="F221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
     </row>
     <row r="222">
       <c r="A222" s="5"/>
       <c r="F222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
     </row>
     <row r="223">
       <c r="A223" s="5"/>
       <c r="F223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
     </row>
     <row r="224">
       <c r="A224" s="5"/>
       <c r="F224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
     </row>
     <row r="225">
       <c r="A225" s="5"/>
       <c r="F225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
     </row>
     <row r="226">
       <c r="A226" s="5"/>
       <c r="F226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
     </row>
     <row r="227">
       <c r="A227" s="5"/>
       <c r="F227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
     </row>
     <row r="228">
       <c r="A228" s="5"/>
       <c r="F228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
     </row>
     <row r="229">
       <c r="A229" s="5"/>
       <c r="F229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
     </row>
     <row r="230">
       <c r="A230" s="5"/>
       <c r="F230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
     </row>
     <row r="231">
       <c r="A231" s="5"/>
       <c r="F231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
     </row>
     <row r="232">
       <c r="A232" s="5"/>
       <c r="F232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
     </row>
     <row r="233">
       <c r="A233" s="5"/>
       <c r="F233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
     </row>
     <row r="234">
       <c r="A234" s="5"/>
       <c r="F234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
     </row>
     <row r="235">
       <c r="A235" s="5"/>
       <c r="F235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
     </row>
     <row r="236">
       <c r="A236" s="5"/>
       <c r="F236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
     </row>
     <row r="237">
       <c r="A237" s="5"/>
       <c r="F237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
     </row>
     <row r="238">
       <c r="A238" s="5"/>
       <c r="F238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
     </row>
     <row r="239">
       <c r="A239" s="5"/>
       <c r="F239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
     </row>
     <row r="240">
       <c r="A240" s="5"/>
       <c r="F240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
     </row>
     <row r="241">
       <c r="A241" s="5"/>
       <c r="F241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
     </row>
     <row r="242">
       <c r="A242" s="5"/>
       <c r="F242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
     </row>
     <row r="243">
       <c r="A243" s="5"/>
       <c r="F243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
     </row>
     <row r="244">
       <c r="A244" s="5"/>
       <c r="F244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
     </row>
     <row r="245">
       <c r="A245" s="5"/>
       <c r="F245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
     </row>
     <row r="246">
       <c r="A246" s="5"/>
       <c r="F246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
     </row>
     <row r="247">
       <c r="A247" s="5"/>
       <c r="F247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
     </row>
     <row r="248">
       <c r="A248" s="5"/>
       <c r="F248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
     </row>
     <row r="249">
       <c r="A249" s="5"/>
       <c r="F249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
     </row>
     <row r="250">
       <c r="A250" s="5"/>
       <c r="F250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
     </row>
     <row r="251">
       <c r="A251" s="5"/>
       <c r="F251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
     </row>
     <row r="252">
       <c r="A252" s="5"/>
       <c r="F252" s="5"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
     </row>
     <row r="253">
       <c r="A253" s="5"/>
       <c r="F253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
     </row>
     <row r="254">
       <c r="A254" s="5"/>
       <c r="F254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
     </row>
     <row r="255">
       <c r="A255" s="5"/>
       <c r="F255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
     </row>
     <row r="256">
       <c r="A256" s="5"/>
       <c r="F256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
     </row>
     <row r="257">
       <c r="A257" s="5"/>
       <c r="F257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
     </row>
     <row r="258">
       <c r="A258" s="5"/>
       <c r="F258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
     </row>
     <row r="259">
       <c r="A259" s="5"/>
       <c r="F259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
     </row>
     <row r="260">
       <c r="A260" s="5"/>
       <c r="F260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
     </row>
     <row r="261">
       <c r="A261" s="5"/>
       <c r="F261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
     </row>
     <row r="262">
       <c r="A262" s="5"/>
       <c r="F262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
     </row>
     <row r="263">
       <c r="A263" s="5"/>
       <c r="F263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
     </row>
     <row r="264">
       <c r="A264" s="5"/>
       <c r="F264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
     </row>
     <row r="265">
       <c r="A265" s="5"/>
       <c r="F265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
     </row>
     <row r="266">
       <c r="A266" s="5"/>
       <c r="F266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
     </row>
     <row r="267">
       <c r="A267" s="5"/>
       <c r="F267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
     </row>
     <row r="268">
       <c r="A268" s="5"/>
       <c r="F268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
     </row>
     <row r="269">
       <c r="A269" s="5"/>
       <c r="F269" s="5"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
     </row>
     <row r="270">
       <c r="A270" s="5"/>
       <c r="F270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
     </row>
     <row r="271">
       <c r="A271" s="5"/>
       <c r="F271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
     </row>
     <row r="272">
       <c r="A272" s="5"/>
       <c r="F272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
     </row>
     <row r="273">
       <c r="A273" s="5"/>
       <c r="F273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
     </row>
     <row r="274">
       <c r="A274" s="5"/>
       <c r="F274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
     </row>
     <row r="275">
       <c r="A275" s="5"/>
       <c r="F275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
     </row>
     <row r="276">
       <c r="A276" s="5"/>
       <c r="F276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
     </row>
     <row r="277">
       <c r="A277" s="5"/>
       <c r="F277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
     </row>
     <row r="278">
       <c r="A278" s="5"/>
       <c r="F278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
     </row>
     <row r="279">
       <c r="A279" s="5"/>
       <c r="F279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
     </row>
     <row r="280">
       <c r="A280" s="5"/>
       <c r="F280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
     </row>
     <row r="281">
       <c r="A281" s="5"/>
       <c r="F281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
     </row>
     <row r="282">
       <c r="A282" s="5"/>
       <c r="F282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
     </row>
     <row r="283">
       <c r="A283" s="5"/>
       <c r="F283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
     </row>
     <row r="284">
       <c r="A284" s="5"/>
       <c r="F284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
     </row>
     <row r="285">
       <c r="A285" s="5"/>
       <c r="F285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
     </row>
     <row r="286">
       <c r="A286" s="5"/>
       <c r="F286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
     </row>
     <row r="287">
       <c r="A287" s="5"/>
       <c r="F287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
     </row>
     <row r="288">
       <c r="A288" s="5"/>
       <c r="F288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
     </row>
     <row r="289">
       <c r="A289" s="5"/>
       <c r="F289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
     </row>
     <row r="290">
       <c r="A290" s="5"/>
       <c r="F290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
     </row>
     <row r="291">
       <c r="A291" s="5"/>
       <c r="F291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
     </row>
     <row r="292">
       <c r="A292" s="5"/>
       <c r="F292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
     </row>
     <row r="293">
       <c r="A293" s="5"/>
       <c r="F293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
     </row>
     <row r="294">
       <c r="A294" s="5"/>
       <c r="F294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
     </row>
     <row r="295">
       <c r="A295" s="5"/>
       <c r="F295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
     </row>
     <row r="296">
       <c r="A296" s="5"/>
       <c r="F296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
     </row>
     <row r="297">
       <c r="A297" s="5"/>
       <c r="F297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
     </row>
     <row r="298">
       <c r="A298" s="5"/>
       <c r="F298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
     </row>
     <row r="299">
       <c r="A299" s="5"/>
       <c r="F299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
     </row>
     <row r="300">
       <c r="A300" s="5"/>
       <c r="F300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
     </row>
     <row r="301">
       <c r="A301" s="5"/>
       <c r="F301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
     </row>
     <row r="302">
       <c r="A302" s="5"/>
       <c r="F302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
     </row>
     <row r="303">
       <c r="A303" s="5"/>
       <c r="F303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
     </row>
     <row r="304">
       <c r="A304" s="5"/>
       <c r="F304" s="5"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
     </row>
     <row r="305">
       <c r="A305" s="5"/>
       <c r="F305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
     </row>
     <row r="306">
       <c r="A306" s="5"/>
       <c r="F306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
     </row>
     <row r="307">
       <c r="A307" s="5"/>
       <c r="F307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
     </row>
     <row r="308">
       <c r="A308" s="5"/>
       <c r="F308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
     </row>
     <row r="309">
       <c r="A309" s="5"/>
       <c r="F309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
     </row>
     <row r="310">
       <c r="A310" s="5"/>
       <c r="F310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
     </row>
     <row r="311">
       <c r="A311" s="5"/>
       <c r="F311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
     </row>
     <row r="312">
       <c r="A312" s="5"/>
       <c r="F312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
     </row>
     <row r="313">
       <c r="A313" s="5"/>
       <c r="F313" s="5"/>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
     </row>
     <row r="314">
       <c r="A314" s="5"/>
       <c r="F314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
     </row>
     <row r="315">
       <c r="A315" s="5"/>
       <c r="F315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
     </row>
     <row r="316">
       <c r="A316" s="5"/>
       <c r="F316" s="5"/>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5"/>
     </row>
     <row r="317">
       <c r="A317" s="5"/>
       <c r="F317" s="5"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
     </row>
     <row r="318">
       <c r="A318" s="5"/>
       <c r="F318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
     </row>
     <row r="319">
       <c r="A319" s="5"/>
       <c r="F319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
     </row>
     <row r="320">
       <c r="A320" s="5"/>
       <c r="F320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
     </row>
     <row r="321">
       <c r="A321" s="5"/>
       <c r="F321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
     </row>
     <row r="322">
       <c r="A322" s="5"/>
       <c r="F322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
     </row>
     <row r="323">
       <c r="A323" s="5"/>
       <c r="F323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
     </row>
     <row r="324">
       <c r="A324" s="5"/>
       <c r="F324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
     </row>
     <row r="325">
       <c r="A325" s="5"/>
       <c r="F325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
     </row>
     <row r="326">
       <c r="A326" s="5"/>
       <c r="F326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
     </row>
     <row r="327">
       <c r="A327" s="5"/>
       <c r="F327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
     </row>
     <row r="328">
       <c r="A328" s="5"/>
       <c r="F328" s="5"/>
+      <c r="J328" s="5"/>
+      <c r="K328" s="5"/>
     </row>
     <row r="329">
       <c r="A329" s="5"/>
       <c r="F329" s="5"/>
+      <c r="J329" s="5"/>
+      <c r="K329" s="5"/>
     </row>
     <row r="330">
       <c r="A330" s="5"/>
       <c r="F330" s="5"/>
+      <c r="J330" s="5"/>
+      <c r="K330" s="5"/>
     </row>
     <row r="331">
       <c r="A331" s="5"/>
       <c r="F331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="5"/>
     </row>
     <row r="332">
       <c r="A332" s="5"/>
       <c r="F332" s="5"/>
+      <c r="J332" s="5"/>
+      <c r="K332" s="5"/>
     </row>
     <row r="333">
       <c r="A333" s="5"/>
       <c r="F333" s="5"/>
+      <c r="J333" s="5"/>
+      <c r="K333" s="5"/>
     </row>
     <row r="334">
       <c r="A334" s="5"/>
       <c r="F334" s="5"/>
+      <c r="J334" s="5"/>
+      <c r="K334" s="5"/>
     </row>
     <row r="335">
       <c r="A335" s="5"/>
       <c r="F335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
     </row>
     <row r="336">
       <c r="A336" s="5"/>
       <c r="F336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
     </row>
     <row r="337">
       <c r="A337" s="5"/>
       <c r="F337" s="5"/>
+      <c r="J337" s="5"/>
+      <c r="K337" s="5"/>
     </row>
     <row r="338">
       <c r="A338" s="5"/>
       <c r="F338" s="5"/>
+      <c r="J338" s="5"/>
+      <c r="K338" s="5"/>
     </row>
     <row r="339">
       <c r="A339" s="5"/>
       <c r="F339" s="5"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="5"/>
     </row>
     <row r="340">
       <c r="A340" s="5"/>
       <c r="F340" s="5"/>
+      <c r="J340" s="5"/>
+      <c r="K340" s="5"/>
     </row>
     <row r="341">
       <c r="A341" s="5"/>
       <c r="F341" s="5"/>
+      <c r="J341" s="5"/>
+      <c r="K341" s="5"/>
     </row>
     <row r="342">
       <c r="A342" s="5"/>
       <c r="F342" s="5"/>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5"/>
     </row>
     <row r="343">
       <c r="A343" s="5"/>
       <c r="F343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="5"/>
     </row>
     <row r="344">
       <c r="A344" s="5"/>
       <c r="F344" s="5"/>
+      <c r="J344" s="5"/>
+      <c r="K344" s="5"/>
     </row>
     <row r="345">
       <c r="A345" s="5"/>
       <c r="F345" s="5"/>
+      <c r="J345" s="5"/>
+      <c r="K345" s="5"/>
     </row>
     <row r="346">
       <c r="A346" s="5"/>
       <c r="F346" s="5"/>
+      <c r="J346" s="5"/>
+      <c r="K346" s="5"/>
     </row>
     <row r="347">
       <c r="A347" s="5"/>
       <c r="F347" s="5"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="5"/>
     </row>
     <row r="348">
       <c r="A348" s="5"/>
       <c r="F348" s="5"/>
+      <c r="J348" s="5"/>
+      <c r="K348" s="5"/>
     </row>
     <row r="349">
       <c r="A349" s="5"/>
       <c r="F349" s="5"/>
+      <c r="J349" s="5"/>
+      <c r="K349" s="5"/>
     </row>
     <row r="350">
       <c r="A350" s="5"/>
       <c r="F350" s="5"/>
+      <c r="J350" s="5"/>
+      <c r="K350" s="5"/>
     </row>
     <row r="351">
       <c r="A351" s="5"/>
       <c r="F351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="5"/>
     </row>
     <row r="352">
       <c r="A352" s="5"/>
       <c r="F352" s="5"/>
+      <c r="J352" s="5"/>
+      <c r="K352" s="5"/>
     </row>
     <row r="353">
       <c r="A353" s="5"/>
       <c r="F353" s="5"/>
+      <c r="J353" s="5"/>
+      <c r="K353" s="5"/>
     </row>
     <row r="354">
       <c r="A354" s="5"/>
       <c r="F354" s="5"/>
+      <c r="J354" s="5"/>
+      <c r="K354" s="5"/>
     </row>
     <row r="355">
       <c r="A355" s="5"/>
       <c r="F355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
     </row>
     <row r="356">
       <c r="A356" s="5"/>
       <c r="F356" s="5"/>
+      <c r="J356" s="5"/>
+      <c r="K356" s="5"/>
     </row>
     <row r="357">
       <c r="A357" s="5"/>
       <c r="F357" s="5"/>
+      <c r="J357" s="5"/>
+      <c r="K357" s="5"/>
     </row>
     <row r="358">
       <c r="A358" s="5"/>
       <c r="F358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
     </row>
     <row r="359">
       <c r="A359" s="5"/>
       <c r="F359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="5"/>
     </row>
     <row r="360">
       <c r="A360" s="5"/>
       <c r="F360" s="5"/>
+      <c r="J360" s="5"/>
+      <c r="K360" s="5"/>
     </row>
     <row r="361">
       <c r="A361" s="5"/>
       <c r="F361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
     </row>
     <row r="362">
       <c r="A362" s="5"/>
       <c r="F362" s="5"/>
+      <c r="J362" s="5"/>
+      <c r="K362" s="5"/>
     </row>
     <row r="363">
       <c r="A363" s="5"/>
       <c r="F363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="5"/>
     </row>
     <row r="364">
       <c r="A364" s="5"/>
       <c r="F364" s="5"/>
+      <c r="J364" s="5"/>
+      <c r="K364" s="5"/>
     </row>
     <row r="365">
       <c r="A365" s="5"/>
       <c r="F365" s="5"/>
+      <c r="J365" s="5"/>
+      <c r="K365" s="5"/>
     </row>
     <row r="366">
       <c r="A366" s="5"/>
       <c r="F366" s="5"/>
+      <c r="J366" s="5"/>
+      <c r="K366" s="5"/>
     </row>
     <row r="367">
       <c r="A367" s="5"/>
       <c r="F367" s="5"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="5"/>
     </row>
     <row r="368">
       <c r="A368" s="5"/>
       <c r="F368" s="5"/>
+      <c r="J368" s="5"/>
+      <c r="K368" s="5"/>
     </row>
     <row r="369">
       <c r="A369" s="5"/>
       <c r="F369" s="5"/>
+      <c r="J369" s="5"/>
+      <c r="K369" s="5"/>
     </row>
     <row r="370">
       <c r="A370" s="5"/>
       <c r="F370" s="5"/>
+      <c r="J370" s="5"/>
+      <c r="K370" s="5"/>
     </row>
     <row r="371">
       <c r="A371" s="5"/>
       <c r="F371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="5"/>
     </row>
     <row r="372">
       <c r="A372" s="5"/>
       <c r="F372" s="5"/>
+      <c r="J372" s="5"/>
+      <c r="K372" s="5"/>
     </row>
     <row r="373">
       <c r="A373" s="5"/>
       <c r="F373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
     </row>
     <row r="374">
       <c r="A374" s="5"/>
       <c r="F374" s="5"/>
+      <c r="J374" s="5"/>
+      <c r="K374" s="5"/>
     </row>
     <row r="375">
       <c r="A375" s="5"/>
       <c r="F375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="5"/>
     </row>
     <row r="376">
       <c r="A376" s="5"/>
       <c r="F376" s="5"/>
+      <c r="J376" s="5"/>
+      <c r="K376" s="5"/>
     </row>
     <row r="377">
       <c r="A377" s="5"/>
       <c r="F377" s="5"/>
+      <c r="J377" s="5"/>
+      <c r="K377" s="5"/>
     </row>
     <row r="378">
       <c r="A378" s="5"/>
       <c r="F378" s="5"/>
+      <c r="J378" s="5"/>
+      <c r="K378" s="5"/>
     </row>
     <row r="379">
       <c r="A379" s="5"/>
       <c r="F379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
     </row>
     <row r="380">
       <c r="A380" s="5"/>
       <c r="F380" s="5"/>
+      <c r="J380" s="5"/>
+      <c r="K380" s="5"/>
     </row>
     <row r="381">
       <c r="A381" s="5"/>
       <c r="F381" s="5"/>
+      <c r="J381" s="5"/>
+      <c r="K381" s="5"/>
     </row>
     <row r="382">
       <c r="A382" s="5"/>
       <c r="F382" s="5"/>
+      <c r="J382" s="5"/>
+      <c r="K382" s="5"/>
     </row>
     <row r="383">
       <c r="A383" s="5"/>
       <c r="F383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="5"/>
     </row>
     <row r="384">
       <c r="A384" s="5"/>
       <c r="F384" s="5"/>
+      <c r="J384" s="5"/>
+      <c r="K384" s="5"/>
     </row>
     <row r="385">
       <c r="A385" s="5"/>
       <c r="F385" s="5"/>
+      <c r="J385" s="5"/>
+      <c r="K385" s="5"/>
     </row>
     <row r="386">
       <c r="A386" s="5"/>
       <c r="F386" s="5"/>
+      <c r="J386" s="5"/>
+      <c r="K386" s="5"/>
     </row>
     <row r="387">
       <c r="A387" s="5"/>
       <c r="F387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="5"/>
     </row>
     <row r="388">
       <c r="A388" s="5"/>
       <c r="F388" s="5"/>
+      <c r="J388" s="5"/>
+      <c r="K388" s="5"/>
     </row>
     <row r="389">
       <c r="A389" s="5"/>
       <c r="F389" s="5"/>
+      <c r="J389" s="5"/>
+      <c r="K389" s="5"/>
     </row>
     <row r="390">
       <c r="A390" s="5"/>
       <c r="F390" s="5"/>
+      <c r="J390" s="5"/>
+      <c r="K390" s="5"/>
     </row>
     <row r="391">
       <c r="A391" s="5"/>
       <c r="F391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="5"/>
     </row>
     <row r="392">
       <c r="A392" s="5"/>
       <c r="F392" s="5"/>
+      <c r="J392" s="5"/>
+      <c r="K392" s="5"/>
     </row>
     <row r="393">
       <c r="A393" s="5"/>
       <c r="F393" s="5"/>
+      <c r="J393" s="5"/>
+      <c r="K393" s="5"/>
     </row>
     <row r="394">
       <c r="A394" s="5"/>
       <c r="F394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
     </row>
     <row r="395">
       <c r="A395" s="5"/>
       <c r="F395" s="5"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="5"/>
     </row>
     <row r="396">
       <c r="A396" s="5"/>
       <c r="F396" s="5"/>
+      <c r="J396" s="5"/>
+      <c r="K396" s="5"/>
     </row>
     <row r="397">
       <c r="A397" s="5"/>
       <c r="F397" s="5"/>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
     </row>
     <row r="398">
       <c r="A398" s="5"/>
       <c r="F398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
     </row>
     <row r="399">
       <c r="A399" s="5"/>
       <c r="F399" s="5"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
     </row>
     <row r="400">
       <c r="A400" s="5"/>
       <c r="F400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
     </row>
     <row r="401">
       <c r="A401" s="5"/>
       <c r="F401" s="5"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
     </row>
     <row r="402">
       <c r="A402" s="5"/>
       <c r="F402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
     </row>
     <row r="403">
       <c r="A403" s="5"/>
       <c r="F403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
     </row>
     <row r="404">
       <c r="A404" s="5"/>
       <c r="F404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
     </row>
     <row r="405">
       <c r="A405" s="5"/>
       <c r="F405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
     </row>
     <row r="406">
       <c r="A406" s="5"/>
       <c r="F406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
     </row>
     <row r="407">
       <c r="A407" s="5"/>
       <c r="F407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
     </row>
     <row r="408">
       <c r="A408" s="5"/>
       <c r="F408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
     </row>
     <row r="409">
       <c r="A409" s="5"/>
       <c r="F409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
     </row>
     <row r="410">
       <c r="A410" s="5"/>
       <c r="F410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
     </row>
     <row r="411">
       <c r="A411" s="5"/>
       <c r="F411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
     </row>
     <row r="412">
       <c r="A412" s="5"/>
       <c r="F412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
     </row>
     <row r="413">
       <c r="A413" s="5"/>
       <c r="F413" s="5"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
     </row>
     <row r="414">
       <c r="A414" s="5"/>
       <c r="F414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
     </row>
     <row r="415">
       <c r="A415" s="5"/>
       <c r="F415" s="5"/>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
     </row>
     <row r="416">
       <c r="A416" s="5"/>
       <c r="F416" s="5"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
     </row>
     <row r="417">
       <c r="A417" s="5"/>
       <c r="F417" s="5"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
     </row>
     <row r="418">
       <c r="A418" s="5"/>
       <c r="F418" s="5"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
     </row>
     <row r="419">
       <c r="A419" s="5"/>
       <c r="F419" s="5"/>
+      <c r="J419" s="5"/>
+      <c r="K419" s="5"/>
     </row>
     <row r="420">
       <c r="A420" s="5"/>
       <c r="F420" s="5"/>
+      <c r="J420" s="5"/>
+      <c r="K420" s="5"/>
     </row>
     <row r="421">
       <c r="A421" s="5"/>
       <c r="F421" s="5"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
     </row>
     <row r="422">
       <c r="A422" s="5"/>
       <c r="F422" s="5"/>
+      <c r="J422" s="5"/>
+      <c r="K422" s="5"/>
     </row>
     <row r="423">
       <c r="A423" s="5"/>
       <c r="F423" s="5"/>
+      <c r="J423" s="5"/>
+      <c r="K423" s="5"/>
     </row>
     <row r="424">
       <c r="A424" s="5"/>
       <c r="F424" s="5"/>
+      <c r="J424" s="5"/>
+      <c r="K424" s="5"/>
     </row>
     <row r="425">
       <c r="A425" s="5"/>
       <c r="F425" s="5"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
     </row>
     <row r="426">
       <c r="A426" s="5"/>
       <c r="F426" s="5"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
     </row>
     <row r="427">
       <c r="A427" s="5"/>
       <c r="F427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
     </row>
     <row r="428">
       <c r="A428" s="5"/>
       <c r="F428" s="5"/>
+      <c r="J428" s="5"/>
+      <c r="K428" s="5"/>
     </row>
     <row r="429">
       <c r="A429" s="5"/>
       <c r="F429" s="5"/>
+      <c r="J429" s="5"/>
+      <c r="K429" s="5"/>
     </row>
     <row r="430">
       <c r="A430" s="5"/>
       <c r="F430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
     </row>
     <row r="431">
       <c r="A431" s="5"/>
       <c r="F431" s="5"/>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
     </row>
     <row r="432">
       <c r="A432" s="5"/>
       <c r="F432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
     </row>
     <row r="433">
       <c r="A433" s="5"/>
       <c r="F433" s="5"/>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
     </row>
     <row r="434">
       <c r="A434" s="5"/>
       <c r="F434" s="5"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
     </row>
     <row r="435">
       <c r="A435" s="5"/>
       <c r="F435" s="5"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
     </row>
     <row r="436">
       <c r="A436" s="5"/>
       <c r="F436" s="5"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
     </row>
     <row r="437">
       <c r="A437" s="5"/>
       <c r="F437" s="5"/>
+      <c r="J437" s="5"/>
+      <c r="K437" s="5"/>
     </row>
     <row r="438">
       <c r="A438" s="5"/>
       <c r="F438" s="5"/>
+      <c r="J438" s="5"/>
+      <c r="K438" s="5"/>
     </row>
     <row r="439">
       <c r="A439" s="5"/>
       <c r="F439" s="5"/>
+      <c r="J439" s="5"/>
+      <c r="K439" s="5"/>
     </row>
     <row r="440">
       <c r="A440" s="5"/>
       <c r="F440" s="5"/>
+      <c r="J440" s="5"/>
+      <c r="K440" s="5"/>
     </row>
     <row r="441">
       <c r="A441" s="5"/>
       <c r="F441" s="5"/>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
     </row>
     <row r="442">
       <c r="A442" s="5"/>
       <c r="F442" s="5"/>
+      <c r="J442" s="5"/>
+      <c r="K442" s="5"/>
     </row>
     <row r="443">
       <c r="A443" s="5"/>
       <c r="F443" s="5"/>
+      <c r="J443" s="5"/>
+      <c r="K443" s="5"/>
     </row>
     <row r="444">
       <c r="A444" s="5"/>
       <c r="F444" s="5"/>
+      <c r="J444" s="5"/>
+      <c r="K444" s="5"/>
     </row>
     <row r="445">
       <c r="A445" s="5"/>
       <c r="F445" s="5"/>
+      <c r="J445" s="5"/>
+      <c r="K445" s="5"/>
     </row>
     <row r="446">
       <c r="A446" s="5"/>
       <c r="F446" s="5"/>
+      <c r="J446" s="5"/>
+      <c r="K446" s="5"/>
     </row>
     <row r="447">
       <c r="A447" s="5"/>
       <c r="F447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
     </row>
     <row r="448">
       <c r="A448" s="5"/>
       <c r="F448" s="5"/>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
     </row>
     <row r="449">
       <c r="A449" s="5"/>
       <c r="F449" s="5"/>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
     </row>
     <row r="450">
       <c r="A450" s="5"/>
       <c r="F450" s="5"/>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
     </row>
     <row r="451">
       <c r="A451" s="5"/>
       <c r="F451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
     </row>
     <row r="452">
       <c r="A452" s="5"/>
       <c r="F452" s="5"/>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
     </row>
     <row r="453">
       <c r="A453" s="5"/>
       <c r="F453" s="5"/>
+      <c r="J453" s="5"/>
+      <c r="K453" s="5"/>
     </row>
     <row r="454">
       <c r="A454" s="5"/>
       <c r="F454" s="5"/>
+      <c r="J454" s="5"/>
+      <c r="K454" s="5"/>
     </row>
     <row r="455">
       <c r="A455" s="5"/>
       <c r="F455" s="5"/>
+      <c r="J455" s="5"/>
+      <c r="K455" s="5"/>
     </row>
     <row r="456">
       <c r="A456" s="5"/>
       <c r="F456" s="5"/>
+      <c r="J456" s="5"/>
+      <c r="K456" s="5"/>
     </row>
     <row r="457">
       <c r="A457" s="5"/>
       <c r="F457" s="5"/>
+      <c r="J457" s="5"/>
+      <c r="K457" s="5"/>
     </row>
     <row r="458">
       <c r="A458" s="5"/>
       <c r="F458" s="5"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
     </row>
     <row r="459">
       <c r="A459" s="5"/>
       <c r="F459" s="5"/>
+      <c r="J459" s="5"/>
+      <c r="K459" s="5"/>
     </row>
     <row r="460">
       <c r="A460" s="5"/>
       <c r="F460" s="5"/>
+      <c r="J460" s="5"/>
+      <c r="K460" s="5"/>
     </row>
     <row r="461">
       <c r="A461" s="5"/>
       <c r="F461" s="5"/>
+      <c r="J461" s="5"/>
+      <c r="K461" s="5"/>
     </row>
     <row r="462">
       <c r="A462" s="5"/>
       <c r="F462" s="5"/>
+      <c r="J462" s="5"/>
+      <c r="K462" s="5"/>
     </row>
     <row r="463">
       <c r="A463" s="5"/>
       <c r="F463" s="5"/>
+      <c r="J463" s="5"/>
+      <c r="K463" s="5"/>
     </row>
     <row r="464">
       <c r="A464" s="5"/>
       <c r="F464" s="5"/>
+      <c r="J464" s="5"/>
+      <c r="K464" s="5"/>
     </row>
     <row r="465">
       <c r="A465" s="5"/>
       <c r="F465" s="5"/>
+      <c r="J465" s="5"/>
+      <c r="K465" s="5"/>
     </row>
     <row r="466">
       <c r="A466" s="5"/>
       <c r="F466" s="5"/>
+      <c r="J466" s="5"/>
+      <c r="K466" s="5"/>
     </row>
     <row r="467">
       <c r="A467" s="5"/>
       <c r="F467" s="5"/>
+      <c r="J467" s="5"/>
+      <c r="K467" s="5"/>
     </row>
     <row r="468">
       <c r="A468" s="5"/>
       <c r="F468" s="5"/>
+      <c r="J468" s="5"/>
+      <c r="K468" s="5"/>
     </row>
     <row r="469">
       <c r="A469" s="5"/>
       <c r="F469" s="5"/>
+      <c r="J469" s="5"/>
+      <c r="K469" s="5"/>
     </row>
     <row r="470">
       <c r="A470" s="5"/>
       <c r="F470" s="5"/>
+      <c r="J470" s="5"/>
+      <c r="K470" s="5"/>
     </row>
     <row r="471">
       <c r="A471" s="5"/>
       <c r="F471" s="5"/>
+      <c r="J471" s="5"/>
+      <c r="K471" s="5"/>
     </row>
     <row r="472">
       <c r="A472" s="5"/>
       <c r="F472" s="5"/>
+      <c r="J472" s="5"/>
+      <c r="K472" s="5"/>
     </row>
     <row r="473">
       <c r="A473" s="5"/>
       <c r="F473" s="5"/>
+      <c r="J473" s="5"/>
+      <c r="K473" s="5"/>
     </row>
     <row r="474">
       <c r="A474" s="5"/>
       <c r="F474" s="5"/>
+      <c r="J474" s="5"/>
+      <c r="K474" s="5"/>
     </row>
     <row r="475">
       <c r="A475" s="5"/>
       <c r="F475" s="5"/>
+      <c r="J475" s="5"/>
+      <c r="K475" s="5"/>
     </row>
     <row r="476">
       <c r="A476" s="5"/>
       <c r="F476" s="5"/>
+      <c r="J476" s="5"/>
+      <c r="K476" s="5"/>
     </row>
     <row r="477">
       <c r="A477" s="5"/>
       <c r="F477" s="5"/>
+      <c r="J477" s="5"/>
+      <c r="K477" s="5"/>
     </row>
     <row r="478">
       <c r="A478" s="5"/>
       <c r="F478" s="5"/>
+      <c r="J478" s="5"/>
+      <c r="K478" s="5"/>
     </row>
     <row r="479">
       <c r="A479" s="5"/>
       <c r="F479" s="5"/>
+      <c r="J479" s="5"/>
+      <c r="K479" s="5"/>
     </row>
     <row r="480">
       <c r="A480" s="5"/>
       <c r="F480" s="5"/>
+      <c r="J480" s="5"/>
+      <c r="K480" s="5"/>
     </row>
     <row r="481">
       <c r="A481" s="5"/>
       <c r="F481" s="5"/>
+      <c r="J481" s="5"/>
+      <c r="K481" s="5"/>
     </row>
     <row r="482">
       <c r="A482" s="5"/>
       <c r="F482" s="5"/>
+      <c r="J482" s="5"/>
+      <c r="K482" s="5"/>
     </row>
     <row r="483">
       <c r="A483" s="5"/>
       <c r="F483" s="5"/>
+      <c r="J483" s="5"/>
+      <c r="K483" s="5"/>
     </row>
     <row r="484">
       <c r="A484" s="5"/>
       <c r="F484" s="5"/>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
     </row>
     <row r="485">
       <c r="A485" s="5"/>
       <c r="F485" s="5"/>
+      <c r="J485" s="5"/>
+      <c r="K485" s="5"/>
     </row>
     <row r="486">
       <c r="A486" s="5"/>
       <c r="F486" s="5"/>
+      <c r="J486" s="5"/>
+      <c r="K486" s="5"/>
     </row>
     <row r="487">
       <c r="A487" s="5"/>
       <c r="F487" s="5"/>
+      <c r="J487" s="5"/>
+      <c r="K487" s="5"/>
     </row>
     <row r="488">
       <c r="A488" s="5"/>
       <c r="F488" s="5"/>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
     </row>
     <row r="489">
       <c r="A489" s="5"/>
       <c r="F489" s="5"/>
+      <c r="J489" s="5"/>
+      <c r="K489" s="5"/>
     </row>
     <row r="490">
       <c r="A490" s="5"/>
       <c r="F490" s="5"/>
+      <c r="J490" s="5"/>
+      <c r="K490" s="5"/>
     </row>
     <row r="491">
       <c r="A491" s="5"/>
       <c r="F491" s="5"/>
+      <c r="J491" s="5"/>
+      <c r="K491" s="5"/>
     </row>
     <row r="492">
       <c r="A492" s="5"/>
       <c r="F492" s="5"/>
+      <c r="J492" s="5"/>
+      <c r="K492" s="5"/>
     </row>
     <row r="493">
       <c r="A493" s="5"/>
       <c r="F493" s="5"/>
+      <c r="J493" s="5"/>
+      <c r="K493" s="5"/>
     </row>
     <row r="494">
       <c r="A494" s="5"/>
       <c r="F494" s="5"/>
+      <c r="J494" s="5"/>
+      <c r="K494" s="5"/>
     </row>
     <row r="495">
       <c r="A495" s="5"/>
       <c r="F495" s="5"/>
+      <c r="J495" s="5"/>
+      <c r="K495" s="5"/>
     </row>
     <row r="496">
       <c r="A496" s="5"/>
       <c r="F496" s="5"/>
+      <c r="J496" s="5"/>
+      <c r="K496" s="5"/>
     </row>
     <row r="497">
       <c r="A497" s="5"/>
       <c r="F497" s="5"/>
+      <c r="J497" s="5"/>
+      <c r="K497" s="5"/>
     </row>
     <row r="498">
       <c r="A498" s="5"/>
       <c r="F498" s="5"/>
+      <c r="J498" s="5"/>
+      <c r="K498" s="5"/>
     </row>
     <row r="499">
       <c r="A499" s="5"/>
       <c r="F499" s="5"/>
+      <c r="J499" s="5"/>
+      <c r="K499" s="5"/>
     </row>
     <row r="500">
       <c r="A500" s="5"/>
       <c r="F500" s="5"/>
+      <c r="J500" s="5"/>
+      <c r="K500" s="5"/>
     </row>
     <row r="501">
       <c r="A501" s="5"/>
       <c r="F501" s="5"/>
+      <c r="J501" s="5"/>
+      <c r="K501" s="5"/>
     </row>
     <row r="502">
       <c r="A502" s="5"/>
       <c r="F502" s="5"/>
+      <c r="J502" s="5"/>
+      <c r="K502" s="5"/>
     </row>
     <row r="503">
       <c r="A503" s="5"/>
       <c r="F503" s="5"/>
+      <c r="J503" s="5"/>
+      <c r="K503" s="5"/>
     </row>
     <row r="504">
       <c r="A504" s="5"/>
       <c r="F504" s="5"/>
+      <c r="J504" s="5"/>
+      <c r="K504" s="5"/>
     </row>
     <row r="505">
       <c r="A505" s="5"/>
       <c r="F505" s="5"/>
+      <c r="J505" s="5"/>
+      <c r="K505" s="5"/>
     </row>
     <row r="506">
       <c r="A506" s="5"/>
       <c r="F506" s="5"/>
+      <c r="J506" s="5"/>
+      <c r="K506" s="5"/>
     </row>
     <row r="507">
       <c r="A507" s="5"/>
       <c r="F507" s="5"/>
+      <c r="J507" s="5"/>
+      <c r="K507" s="5"/>
     </row>
     <row r="508">
       <c r="A508" s="5"/>
       <c r="F508" s="5"/>
+      <c r="J508" s="5"/>
+      <c r="K508" s="5"/>
     </row>
     <row r="509">
       <c r="A509" s="5"/>
       <c r="F509" s="5"/>
+      <c r="J509" s="5"/>
+      <c r="K509" s="5"/>
     </row>
     <row r="510">
       <c r="A510" s="5"/>
       <c r="F510" s="5"/>
+      <c r="J510" s="5"/>
+      <c r="K510" s="5"/>
     </row>
     <row r="511">
       <c r="A511" s="5"/>
       <c r="F511" s="5"/>
+      <c r="J511" s="5"/>
+      <c r="K511" s="5"/>
     </row>
     <row r="512">
       <c r="A512" s="5"/>
       <c r="F512" s="5"/>
+      <c r="J512" s="5"/>
+      <c r="K512" s="5"/>
     </row>
     <row r="513">
       <c r="A513" s="5"/>
       <c r="F513" s="5"/>
+      <c r="J513" s="5"/>
+      <c r="K513" s="5"/>
     </row>
     <row r="514">
       <c r="A514" s="5"/>
       <c r="F514" s="5"/>
+      <c r="J514" s="5"/>
+      <c r="K514" s="5"/>
     </row>
     <row r="515">
       <c r="A515" s="5"/>
       <c r="F515" s="5"/>
+      <c r="J515" s="5"/>
+      <c r="K515" s="5"/>
     </row>
     <row r="516">
       <c r="A516" s="5"/>
       <c r="F516" s="5"/>
+      <c r="J516" s="5"/>
+      <c r="K516" s="5"/>
     </row>
     <row r="517">
       <c r="A517" s="5"/>
       <c r="F517" s="5"/>
+      <c r="J517" s="5"/>
+      <c r="K517" s="5"/>
     </row>
     <row r="518">
       <c r="A518" s="5"/>
       <c r="F518" s="5"/>
+      <c r="J518" s="5"/>
+      <c r="K518" s="5"/>
     </row>
     <row r="519">
       <c r="A519" s="5"/>
       <c r="F519" s="5"/>
+      <c r="J519" s="5"/>
+      <c r="K519" s="5"/>
     </row>
     <row r="520">
       <c r="A520" s="5"/>
       <c r="F520" s="5"/>
+      <c r="J520" s="5"/>
+      <c r="K520" s="5"/>
     </row>
     <row r="521">
       <c r="A521" s="5"/>
       <c r="F521" s="5"/>
+      <c r="J521" s="5"/>
+      <c r="K521" s="5"/>
     </row>
     <row r="522">
       <c r="A522" s="5"/>
       <c r="F522" s="5"/>
+      <c r="J522" s="5"/>
+      <c r="K522" s="5"/>
     </row>
     <row r="523">
       <c r="A523" s="5"/>
       <c r="F523" s="5"/>
+      <c r="J523" s="5"/>
+      <c r="K523" s="5"/>
     </row>
     <row r="524">
       <c r="A524" s="5"/>
       <c r="F524" s="5"/>
+      <c r="J524" s="5"/>
+      <c r="K524" s="5"/>
     </row>
     <row r="525">
       <c r="A525" s="5"/>
       <c r="F525" s="5"/>
+      <c r="J525" s="5"/>
+      <c r="K525" s="5"/>
     </row>
     <row r="526">
       <c r="A526" s="5"/>
       <c r="F526" s="5"/>
+      <c r="J526" s="5"/>
+      <c r="K526" s="5"/>
     </row>
     <row r="527">
       <c r="A527" s="5"/>
       <c r="F527" s="5"/>
+      <c r="J527" s="5"/>
+      <c r="K527" s="5"/>
     </row>
     <row r="528">
       <c r="A528" s="5"/>
       <c r="F528" s="5"/>
+      <c r="J528" s="5"/>
+      <c r="K528" s="5"/>
     </row>
     <row r="529">
       <c r="A529" s="5"/>
       <c r="F529" s="5"/>
+      <c r="J529" s="5"/>
+      <c r="K529" s="5"/>
     </row>
     <row r="530">
       <c r="A530" s="5"/>
       <c r="F530" s="5"/>
+      <c r="J530" s="5"/>
+      <c r="K530" s="5"/>
     </row>
     <row r="531">
       <c r="A531" s="5"/>
       <c r="F531" s="5"/>
+      <c r="J531" s="5"/>
+      <c r="K531" s="5"/>
     </row>
     <row r="532">
       <c r="A532" s="5"/>
       <c r="F532" s="5"/>
+      <c r="J532" s="5"/>
+      <c r="K532" s="5"/>
     </row>
     <row r="533">
       <c r="A533" s="5"/>
       <c r="F533" s="5"/>
+      <c r="J533" s="5"/>
+      <c r="K533" s="5"/>
     </row>
     <row r="534">
       <c r="A534" s="5"/>
       <c r="F534" s="5"/>
+      <c r="J534" s="5"/>
+      <c r="K534" s="5"/>
     </row>
     <row r="535">
       <c r="A535" s="5"/>
       <c r="F535" s="5"/>
+      <c r="J535" s="5"/>
+      <c r="K535" s="5"/>
     </row>
     <row r="536">
       <c r="A536" s="5"/>
       <c r="F536" s="5"/>
+      <c r="J536" s="5"/>
+      <c r="K536" s="5"/>
     </row>
     <row r="537">
       <c r="A537" s="5"/>
       <c r="F537" s="5"/>
+      <c r="J537" s="5"/>
+      <c r="K537" s="5"/>
     </row>
     <row r="538">
       <c r="A538" s="5"/>
       <c r="F538" s="5"/>
+      <c r="J538" s="5"/>
+      <c r="K538" s="5"/>
     </row>
     <row r="539">
       <c r="A539" s="5"/>
       <c r="F539" s="5"/>
+      <c r="J539" s="5"/>
+      <c r="K539" s="5"/>
     </row>
     <row r="540">
       <c r="A540" s="5"/>
       <c r="F540" s="5"/>
+      <c r="J540" s="5"/>
+      <c r="K540" s="5"/>
     </row>
     <row r="541">
       <c r="A541" s="5"/>
       <c r="F541" s="5"/>
+      <c r="J541" s="5"/>
+      <c r="K541" s="5"/>
     </row>
     <row r="542">
       <c r="A542" s="5"/>
       <c r="F542" s="5"/>
+      <c r="J542" s="5"/>
+      <c r="K542" s="5"/>
     </row>
     <row r="543">
       <c r="A543" s="5"/>
       <c r="F543" s="5"/>
+      <c r="J543" s="5"/>
+      <c r="K543" s="5"/>
     </row>
     <row r="544">
       <c r="A544" s="5"/>
       <c r="F544" s="5"/>
+      <c r="J544" s="5"/>
+      <c r="K544" s="5"/>
     </row>
     <row r="545">
       <c r="A545" s="5"/>
       <c r="F545" s="5"/>
+      <c r="J545" s="5"/>
+      <c r="K545" s="5"/>
     </row>
     <row r="546">
       <c r="A546" s="5"/>
       <c r="F546" s="5"/>
+      <c r="J546" s="5"/>
+      <c r="K546" s="5"/>
     </row>
     <row r="547">
       <c r="A547" s="5"/>
       <c r="F547" s="5"/>
+      <c r="J547" s="5"/>
+      <c r="K547" s="5"/>
     </row>
     <row r="548">
       <c r="A548" s="5"/>
       <c r="F548" s="5"/>
+      <c r="J548" s="5"/>
+      <c r="K548" s="5"/>
     </row>
     <row r="549">
       <c r="A549" s="5"/>
       <c r="F549" s="5"/>
+      <c r="J549" s="5"/>
+      <c r="K549" s="5"/>
     </row>
     <row r="550">
       <c r="A550" s="5"/>
       <c r="F550" s="5"/>
+      <c r="J550" s="5"/>
+      <c r="K550" s="5"/>
     </row>
     <row r="551">
       <c r="A551" s="5"/>
       <c r="F551" s="5"/>
+      <c r="J551" s="5"/>
+      <c r="K551" s="5"/>
     </row>
     <row r="552">
       <c r="A552" s="5"/>
       <c r="F552" s="5"/>
+      <c r="J552" s="5"/>
+      <c r="K552" s="5"/>
     </row>
     <row r="553">
       <c r="A553" s="5"/>
       <c r="F553" s="5"/>
+      <c r="J553" s="5"/>
+      <c r="K553" s="5"/>
     </row>
     <row r="554">
       <c r="A554" s="5"/>
       <c r="F554" s="5"/>
+      <c r="J554" s="5"/>
+      <c r="K554" s="5"/>
     </row>
     <row r="555">
       <c r="A555" s="5"/>
       <c r="F555" s="5"/>
+      <c r="J555" s="5"/>
+      <c r="K555" s="5"/>
     </row>
     <row r="556">
       <c r="A556" s="5"/>
       <c r="F556" s="5"/>
+      <c r="J556" s="5"/>
+      <c r="K556" s="5"/>
     </row>
     <row r="557">
       <c r="A557" s="5"/>
       <c r="F557" s="5"/>
+      <c r="J557" s="5"/>
+      <c r="K557" s="5"/>
     </row>
     <row r="558">
       <c r="A558" s="5"/>
       <c r="F558" s="5"/>
+      <c r="J558" s="5"/>
+      <c r="K558" s="5"/>
     </row>
     <row r="559">
       <c r="A559" s="5"/>
       <c r="F559" s="5"/>
+      <c r="J559" s="5"/>
+      <c r="K559" s="5"/>
     </row>
     <row r="560">
       <c r="A560" s="5"/>
       <c r="F560" s="5"/>
+      <c r="J560" s="5"/>
+      <c r="K560" s="5"/>
     </row>
     <row r="561">
       <c r="A561" s="5"/>
       <c r="F561" s="5"/>
+      <c r="J561" s="5"/>
+      <c r="K561" s="5"/>
     </row>
     <row r="562">
       <c r="A562" s="5"/>
       <c r="F562" s="5"/>
+      <c r="J562" s="5"/>
+      <c r="K562" s="5"/>
     </row>
     <row r="563">
       <c r="A563" s="5"/>
       <c r="F563" s="5"/>
+      <c r="J563" s="5"/>
+      <c r="K563" s="5"/>
     </row>
     <row r="564">
       <c r="A564" s="5"/>
       <c r="F564" s="5"/>
+      <c r="J564" s="5"/>
+      <c r="K564" s="5"/>
     </row>
     <row r="565">
       <c r="A565" s="5"/>
       <c r="F565" s="5"/>
+      <c r="J565" s="5"/>
+      <c r="K565" s="5"/>
     </row>
     <row r="566">
       <c r="A566" s="5"/>
       <c r="F566" s="5"/>
+      <c r="J566" s="5"/>
+      <c r="K566" s="5"/>
     </row>
     <row r="567">
       <c r="A567" s="5"/>
       <c r="F567" s="5"/>
+      <c r="J567" s="5"/>
+      <c r="K567" s="5"/>
     </row>
     <row r="568">
       <c r="A568" s="5"/>
       <c r="F568" s="5"/>
+      <c r="J568" s="5"/>
+      <c r="K568" s="5"/>
     </row>
     <row r="569">
       <c r="A569" s="5"/>
       <c r="F569" s="5"/>
+      <c r="J569" s="5"/>
+      <c r="K569" s="5"/>
     </row>
     <row r="570">
       <c r="A570" s="5"/>
       <c r="F570" s="5"/>
+      <c r="J570" s="5"/>
+      <c r="K570" s="5"/>
     </row>
     <row r="571">
       <c r="A571" s="5"/>
       <c r="F571" s="5"/>
+      <c r="J571" s="5"/>
+      <c r="K571" s="5"/>
     </row>
     <row r="572">
       <c r="A572" s="5"/>
       <c r="F572" s="5"/>
+      <c r="J572" s="5"/>
+      <c r="K572" s="5"/>
     </row>
     <row r="573">
       <c r="A573" s="5"/>
       <c r="F573" s="5"/>
+      <c r="J573" s="5"/>
+      <c r="K573" s="5"/>
     </row>
     <row r="574">
       <c r="A574" s="5"/>
       <c r="F574" s="5"/>
+      <c r="J574" s="5"/>
+      <c r="K574" s="5"/>
     </row>
     <row r="575">
       <c r="A575" s="5"/>
       <c r="F575" s="5"/>
+      <c r="J575" s="5"/>
+      <c r="K575" s="5"/>
     </row>
     <row r="576">
       <c r="A576" s="5"/>
       <c r="F576" s="5"/>
+      <c r="J576" s="5"/>
+      <c r="K576" s="5"/>
     </row>
     <row r="577">
       <c r="A577" s="5"/>
       <c r="F577" s="5"/>
+      <c r="J577" s="5"/>
+      <c r="K577" s="5"/>
     </row>
     <row r="578">
       <c r="A578" s="5"/>
       <c r="F578" s="5"/>
+      <c r="J578" s="5"/>
+      <c r="K578" s="5"/>
     </row>
     <row r="579">
       <c r="A579" s="5"/>
       <c r="F579" s="5"/>
+      <c r="J579" s="5"/>
+      <c r="K579" s="5"/>
     </row>
     <row r="580">
       <c r="A580" s="5"/>
       <c r="F580" s="5"/>
+      <c r="J580" s="5"/>
+      <c r="K580" s="5"/>
     </row>
     <row r="581">
       <c r="A581" s="5"/>
       <c r="F581" s="5"/>
+      <c r="J581" s="5"/>
+      <c r="K581" s="5"/>
     </row>
     <row r="582">
       <c r="A582" s="5"/>
       <c r="F582" s="5"/>
+      <c r="J582" s="5"/>
+      <c r="K582" s="5"/>
     </row>
     <row r="583">
       <c r="A583" s="5"/>
       <c r="F583" s="5"/>
+      <c r="J583" s="5"/>
+      <c r="K583" s="5"/>
     </row>
     <row r="584">
       <c r="A584" s="5"/>
       <c r="F584" s="5"/>
+      <c r="J584" s="5"/>
+      <c r="K584" s="5"/>
     </row>
     <row r="585">
       <c r="A585" s="5"/>
       <c r="F585" s="5"/>
+      <c r="J585" s="5"/>
+      <c r="K585" s="5"/>
     </row>
     <row r="586">
       <c r="A586" s="5"/>
       <c r="F586" s="5"/>
+      <c r="J586" s="5"/>
+      <c r="K586" s="5"/>
     </row>
     <row r="587">
       <c r="A587" s="5"/>
       <c r="F587" s="5"/>
+      <c r="J587" s="5"/>
+      <c r="K587" s="5"/>
     </row>
     <row r="588">
       <c r="A588" s="5"/>
       <c r="F588" s="5"/>
+      <c r="J588" s="5"/>
+      <c r="K588" s="5"/>
     </row>
     <row r="589">
       <c r="A589" s="5"/>
       <c r="F589" s="5"/>
+      <c r="J589" s="5"/>
+      <c r="K589" s="5"/>
     </row>
     <row r="590">
       <c r="A590" s="5"/>
       <c r="F590" s="5"/>
+      <c r="J590" s="5"/>
+      <c r="K590" s="5"/>
     </row>
     <row r="591">
       <c r="A591" s="5"/>
       <c r="F591" s="5"/>
+      <c r="J591" s="5"/>
+      <c r="K591" s="5"/>
     </row>
     <row r="592">
       <c r="A592" s="5"/>
       <c r="F592" s="5"/>
+      <c r="J592" s="5"/>
+      <c r="K592" s="5"/>
     </row>
     <row r="593">
       <c r="A593" s="5"/>
       <c r="F593" s="5"/>
+      <c r="J593" s="5"/>
+      <c r="K593" s="5"/>
     </row>
     <row r="594">
       <c r="A594" s="5"/>
       <c r="F594" s="5"/>
+      <c r="J594" s="5"/>
+      <c r="K594" s="5"/>
     </row>
     <row r="595">
       <c r="A595" s="5"/>
       <c r="F595" s="5"/>
+      <c r="J595" s="5"/>
+      <c r="K595" s="5"/>
     </row>
     <row r="596">
       <c r="A596" s="5"/>
       <c r="F596" s="5"/>
+      <c r="J596" s="5"/>
+      <c r="K596" s="5"/>
     </row>
     <row r="597">
       <c r="A597" s="5"/>
       <c r="F597" s="5"/>
+      <c r="J597" s="5"/>
+      <c r="K597" s="5"/>
     </row>
     <row r="598">
       <c r="A598" s="5"/>
       <c r="F598" s="5"/>
+      <c r="J598" s="5"/>
+      <c r="K598" s="5"/>
     </row>
     <row r="599">
       <c r="A599" s="5"/>
       <c r="F599" s="5"/>
+      <c r="J599" s="5"/>
+      <c r="K599" s="5"/>
     </row>
     <row r="600">
       <c r="A600" s="5"/>
       <c r="F600" s="5"/>
+      <c r="J600" s="5"/>
+      <c r="K600" s="5"/>
     </row>
     <row r="601">
       <c r="A601" s="5"/>
       <c r="F601" s="5"/>
+      <c r="J601" s="5"/>
+      <c r="K601" s="5"/>
     </row>
     <row r="602">
       <c r="A602" s="5"/>
       <c r="F602" s="5"/>
+      <c r="J602" s="5"/>
+      <c r="K602" s="5"/>
     </row>
     <row r="603">
       <c r="A603" s="5"/>
       <c r="F603" s="5"/>
+      <c r="J603" s="5"/>
+      <c r="K603" s="5"/>
     </row>
     <row r="604">
       <c r="A604" s="5"/>
       <c r="F604" s="5"/>
+      <c r="J604" s="5"/>
+      <c r="K604" s="5"/>
     </row>
     <row r="605">
       <c r="A605" s="5"/>
       <c r="F605" s="5"/>
+      <c r="J605" s="5"/>
+      <c r="K605" s="5"/>
     </row>
     <row r="606">
       <c r="A606" s="5"/>
       <c r="F606" s="5"/>
+      <c r="J606" s="5"/>
+      <c r="K606" s="5"/>
     </row>
     <row r="607">
       <c r="A607" s="5"/>
       <c r="F607" s="5"/>
+      <c r="J607" s="5"/>
+      <c r="K607" s="5"/>
     </row>
     <row r="608">
       <c r="A608" s="5"/>
       <c r="F608" s="5"/>
+      <c r="J608" s="5"/>
+      <c r="K608" s="5"/>
     </row>
     <row r="609">
       <c r="A609" s="5"/>
       <c r="F609" s="5"/>
+      <c r="J609" s="5"/>
+      <c r="K609" s="5"/>
     </row>
     <row r="610">
       <c r="A610" s="5"/>
       <c r="F610" s="5"/>
+      <c r="J610" s="5"/>
+      <c r="K610" s="5"/>
     </row>
     <row r="611">
       <c r="A611" s="5"/>
       <c r="F611" s="5"/>
+      <c r="J611" s="5"/>
+      <c r="K611" s="5"/>
     </row>
     <row r="612">
       <c r="A612" s="5"/>
       <c r="F612" s="5"/>
+      <c r="J612" s="5"/>
+      <c r="K612" s="5"/>
     </row>
     <row r="613">
       <c r="A613" s="5"/>
       <c r="F613" s="5"/>
+      <c r="J613" s="5"/>
+      <c r="K613" s="5"/>
     </row>
     <row r="614">
       <c r="A614" s="5"/>
       <c r="F614" s="5"/>
+      <c r="J614" s="5"/>
+      <c r="K614" s="5"/>
     </row>
     <row r="615">
       <c r="A615" s="5"/>
       <c r="F615" s="5"/>
+      <c r="J615" s="5"/>
+      <c r="K615" s="5"/>
     </row>
     <row r="616">
       <c r="A616" s="5"/>
       <c r="F616" s="5"/>
+      <c r="J616" s="5"/>
+      <c r="K616" s="5"/>
     </row>
     <row r="617">
       <c r="A617" s="5"/>
       <c r="F617" s="5"/>
+      <c r="J617" s="5"/>
+      <c r="K617" s="5"/>
     </row>
     <row r="618">
       <c r="A618" s="5"/>
       <c r="F618" s="5"/>
+      <c r="J618" s="5"/>
+      <c r="K618" s="5"/>
     </row>
     <row r="619">
       <c r="A619" s="5"/>
       <c r="F619" s="5"/>
+      <c r="J619" s="5"/>
+      <c r="K619" s="5"/>
     </row>
     <row r="620">
       <c r="A620" s="5"/>
       <c r="F620" s="5"/>
+      <c r="J620" s="5"/>
+      <c r="K620" s="5"/>
     </row>
     <row r="621">
       <c r="A621" s="5"/>
       <c r="F621" s="5"/>
+      <c r="J621" s="5"/>
+      <c r="K621" s="5"/>
     </row>
     <row r="622">
       <c r="A622" s="5"/>
       <c r="F622" s="5"/>
+      <c r="J622" s="5"/>
+      <c r="K622" s="5"/>
     </row>
     <row r="623">
       <c r="A623" s="5"/>
       <c r="F623" s="5"/>
+      <c r="J623" s="5"/>
+      <c r="K623" s="5"/>
     </row>
     <row r="624">
       <c r="A624" s="5"/>
       <c r="F624" s="5"/>
+      <c r="J624" s="5"/>
+      <c r="K624" s="5"/>
     </row>
     <row r="625">
       <c r="A625" s="5"/>
       <c r="F625" s="5"/>
+      <c r="J625" s="5"/>
+      <c r="K625" s="5"/>
     </row>
     <row r="626">
       <c r="A626" s="5"/>
       <c r="F626" s="5"/>
+      <c r="J626" s="5"/>
+      <c r="K626" s="5"/>
     </row>
     <row r="627">
       <c r="A627" s="5"/>
       <c r="F627" s="5"/>
+      <c r="J627" s="5"/>
+      <c r="K627" s="5"/>
     </row>
     <row r="628">
       <c r="A628" s="5"/>
       <c r="F628" s="5"/>
+      <c r="J628" s="5"/>
+      <c r="K628" s="5"/>
     </row>
     <row r="629">
       <c r="A629" s="5"/>
       <c r="F629" s="5"/>
+      <c r="J629" s="5"/>
+      <c r="K629" s="5"/>
     </row>
     <row r="630">
       <c r="A630" s="5"/>
       <c r="F630" s="5"/>
+      <c r="J630" s="5"/>
+      <c r="K630" s="5"/>
     </row>
     <row r="631">
       <c r="A631" s="5"/>
       <c r="F631" s="5"/>
+      <c r="J631" s="5"/>
+      <c r="K631" s="5"/>
     </row>
     <row r="632">
       <c r="A632" s="5"/>
       <c r="F632" s="5"/>
+      <c r="J632" s="5"/>
+      <c r="K632" s="5"/>
     </row>
     <row r="633">
       <c r="A633" s="5"/>
       <c r="F633" s="5"/>
+      <c r="J633" s="5"/>
+      <c r="K633" s="5"/>
     </row>
     <row r="634">
       <c r="A634" s="5"/>
       <c r="F634" s="5"/>
+      <c r="J634" s="5"/>
+      <c r="K634" s="5"/>
     </row>
     <row r="635">
       <c r="A635" s="5"/>
       <c r="F635" s="5"/>
+      <c r="J635" s="5"/>
+      <c r="K635" s="5"/>
     </row>
     <row r="636">
       <c r="A636" s="5"/>
       <c r="F636" s="5"/>
+      <c r="J636" s="5"/>
+      <c r="K636" s="5"/>
     </row>
     <row r="637">
       <c r="A637" s="5"/>
       <c r="F637" s="5"/>
+      <c r="J637" s="5"/>
+      <c r="K637" s="5"/>
     </row>
     <row r="638">
       <c r="A638" s="5"/>
       <c r="F638" s="5"/>
+      <c r="J638" s="5"/>
+      <c r="K638" s="5"/>
     </row>
     <row r="639">
       <c r="A639" s="5"/>
       <c r="F639" s="5"/>
+      <c r="J639" s="5"/>
+      <c r="K639" s="5"/>
     </row>
     <row r="640">
       <c r="A640" s="5"/>
       <c r="F640" s="5"/>
+      <c r="J640" s="5"/>
+      <c r="K640" s="5"/>
     </row>
     <row r="641">
       <c r="A641" s="5"/>
       <c r="F641" s="5"/>
+      <c r="J641" s="5"/>
+      <c r="K641" s="5"/>
     </row>
     <row r="642">
       <c r="A642" s="5"/>
       <c r="F642" s="5"/>
+      <c r="J642" s="5"/>
+      <c r="K642" s="5"/>
     </row>
     <row r="643">
       <c r="A643" s="5"/>
       <c r="F643" s="5"/>
+      <c r="J643" s="5"/>
+      <c r="K643" s="5"/>
     </row>
     <row r="644">
       <c r="A644" s="5"/>
       <c r="F644" s="5"/>
+      <c r="J644" s="5"/>
+      <c r="K644" s="5"/>
     </row>
     <row r="645">
       <c r="A645" s="5"/>
       <c r="F645" s="5"/>
+      <c r="J645" s="5"/>
+      <c r="K645" s="5"/>
     </row>
     <row r="646">
       <c r="A646" s="5"/>
       <c r="F646" s="5"/>
+      <c r="J646" s="5"/>
+      <c r="K646" s="5"/>
     </row>
     <row r="647">
       <c r="A647" s="5"/>
       <c r="F647" s="5"/>
+      <c r="J647" s="5"/>
+      <c r="K647" s="5"/>
     </row>
     <row r="648">
       <c r="A648" s="5"/>
       <c r="F648" s="5"/>
+      <c r="J648" s="5"/>
+      <c r="K648" s="5"/>
     </row>
     <row r="649">
       <c r="A649" s="5"/>
       <c r="F649" s="5"/>
+      <c r="J649" s="5"/>
+      <c r="K649" s="5"/>
     </row>
     <row r="650">
       <c r="A650" s="5"/>
       <c r="F650" s="5"/>
+      <c r="J650" s="5"/>
+      <c r="K650" s="5"/>
     </row>
     <row r="651">
       <c r="A651" s="5"/>
       <c r="F651" s="5"/>
+      <c r="J651" s="5"/>
+      <c r="K651" s="5"/>
     </row>
     <row r="652">
       <c r="A652" s="5"/>
       <c r="F652" s="5"/>
+      <c r="J652" s="5"/>
+      <c r="K652" s="5"/>
     </row>
     <row r="653">
       <c r="A653" s="5"/>
       <c r="F653" s="5"/>
+      <c r="J653" s="5"/>
+      <c r="K653" s="5"/>
     </row>
     <row r="654">
       <c r="A654" s="5"/>
       <c r="F654" s="5"/>
+      <c r="J654" s="5"/>
+      <c r="K654" s="5"/>
     </row>
     <row r="655">
       <c r="A655" s="5"/>
       <c r="F655" s="5"/>
+      <c r="J655" s="5"/>
+      <c r="K655" s="5"/>
     </row>
     <row r="656">
       <c r="A656" s="5"/>
       <c r="F656" s="5"/>
+      <c r="J656" s="5"/>
+      <c r="K656" s="5"/>
     </row>
     <row r="657">
       <c r="A657" s="5"/>
       <c r="F657" s="5"/>
+      <c r="J657" s="5"/>
+      <c r="K657" s="5"/>
     </row>
     <row r="658">
       <c r="A658" s="5"/>
       <c r="F658" s="5"/>
+      <c r="J658" s="5"/>
+      <c r="K658" s="5"/>
     </row>
     <row r="659">
       <c r="A659" s="5"/>
       <c r="F659" s="5"/>
+      <c r="J659" s="5"/>
+      <c r="K659" s="5"/>
     </row>
     <row r="660">
       <c r="A660" s="5"/>
       <c r="F660" s="5"/>
+      <c r="J660" s="5"/>
+      <c r="K660" s="5"/>
     </row>
     <row r="661">
       <c r="A661" s="5"/>
       <c r="F661" s="5"/>
+      <c r="J661" s="5"/>
+      <c r="K661" s="5"/>
     </row>
     <row r="662">
       <c r="A662" s="5"/>
       <c r="F662" s="5"/>
+      <c r="J662" s="5"/>
+      <c r="K662" s="5"/>
     </row>
     <row r="663">
       <c r="A663" s="5"/>
       <c r="F663" s="5"/>
+      <c r="J663" s="5"/>
+      <c r="K663" s="5"/>
     </row>
     <row r="664">
       <c r="A664" s="5"/>
       <c r="F664" s="5"/>
+      <c r="J664" s="5"/>
+      <c r="K664" s="5"/>
     </row>
     <row r="665">
       <c r="A665" s="5"/>
       <c r="F665" s="5"/>
+      <c r="J665" s="5"/>
+      <c r="K665" s="5"/>
     </row>
     <row r="666">
       <c r="A666" s="5"/>
       <c r="F666" s="5"/>
+      <c r="J666" s="5"/>
+      <c r="K666" s="5"/>
     </row>
     <row r="667">
       <c r="A667" s="5"/>
       <c r="F667" s="5"/>
+      <c r="J667" s="5"/>
+      <c r="K667" s="5"/>
     </row>
     <row r="668">
       <c r="A668" s="5"/>
       <c r="F668" s="5"/>
+      <c r="J668" s="5"/>
+      <c r="K668" s="5"/>
     </row>
     <row r="669">
       <c r="A669" s="5"/>
       <c r="F669" s="5"/>
+      <c r="J669" s="5"/>
+      <c r="K669" s="5"/>
     </row>
     <row r="670">
       <c r="A670" s="5"/>
       <c r="F670" s="5"/>
+      <c r="J670" s="5"/>
+      <c r="K670" s="5"/>
     </row>
     <row r="671">
       <c r="A671" s="5"/>
       <c r="F671" s="5"/>
+      <c r="J671" s="5"/>
+      <c r="K671" s="5"/>
     </row>
     <row r="672">
       <c r="A672" s="5"/>
       <c r="F672" s="5"/>
+      <c r="J672" s="5"/>
+      <c r="K672" s="5"/>
     </row>
     <row r="673">
       <c r="A673" s="5"/>
       <c r="F673" s="5"/>
+      <c r="J673" s="5"/>
+      <c r="K673" s="5"/>
     </row>
     <row r="674">
       <c r="A674" s="5"/>
       <c r="F674" s="5"/>
+      <c r="J674" s="5"/>
+      <c r="K674" s="5"/>
     </row>
     <row r="675">
       <c r="A675" s="5"/>
       <c r="F675" s="5"/>
+      <c r="J675" s="5"/>
+      <c r="K675" s="5"/>
     </row>
     <row r="676">
       <c r="A676" s="5"/>
       <c r="F676" s="5"/>
+      <c r="J676" s="5"/>
+      <c r="K676" s="5"/>
     </row>
     <row r="677">
       <c r="A677" s="5"/>
       <c r="F677" s="5"/>
+      <c r="J677" s="5"/>
+      <c r="K677" s="5"/>
     </row>
     <row r="678">
       <c r="A678" s="5"/>
       <c r="F678" s="5"/>
+      <c r="J678" s="5"/>
+      <c r="K678" s="5"/>
     </row>
     <row r="679">
       <c r="A679" s="5"/>
       <c r="F679" s="5"/>
+      <c r="J679" s="5"/>
+      <c r="K679" s="5"/>
     </row>
     <row r="680">
       <c r="A680" s="5"/>
       <c r="F680" s="5"/>
+      <c r="J680" s="5"/>
+      <c r="K680" s="5"/>
     </row>
     <row r="681">
       <c r="A681" s="5"/>
       <c r="F681" s="5"/>
+      <c r="J681" s="5"/>
+      <c r="K681" s="5"/>
     </row>
     <row r="682">
       <c r="A682" s="5"/>
       <c r="F682" s="5"/>
+      <c r="J682" s="5"/>
+      <c r="K682" s="5"/>
     </row>
     <row r="683">
       <c r="A683" s="5"/>
       <c r="F683" s="5"/>
+      <c r="J683" s="5"/>
+      <c r="K683" s="5"/>
     </row>
     <row r="684">
       <c r="A684" s="5"/>
       <c r="F684" s="5"/>
+      <c r="J684" s="5"/>
+      <c r="K684" s="5"/>
     </row>
     <row r="685">
       <c r="A685" s="5"/>
       <c r="F685" s="5"/>
+      <c r="J685" s="5"/>
+      <c r="K685" s="5"/>
     </row>
     <row r="686">
       <c r="A686" s="5"/>
       <c r="F686" s="5"/>
+      <c r="J686" s="5"/>
+      <c r="K686" s="5"/>
     </row>
     <row r="687">
       <c r="A687" s="5"/>
       <c r="F687" s="5"/>
+      <c r="J687" s="5"/>
+      <c r="K687" s="5"/>
     </row>
     <row r="688">
       <c r="A688" s="5"/>
       <c r="F688" s="5"/>
+      <c r="J688" s="5"/>
+      <c r="K688" s="5"/>
     </row>
     <row r="689">
       <c r="A689" s="5"/>
       <c r="F689" s="5"/>
+      <c r="J689" s="5"/>
+      <c r="K689" s="5"/>
     </row>
     <row r="690">
       <c r="A690" s="5"/>
       <c r="F690" s="5"/>
+      <c r="J690" s="5"/>
+      <c r="K690" s="5"/>
     </row>
     <row r="691">
       <c r="A691" s="5"/>
       <c r="F691" s="5"/>
+      <c r="J691" s="5"/>
+      <c r="K691" s="5"/>
     </row>
     <row r="692">
       <c r="A692" s="5"/>
       <c r="F692" s="5"/>
+      <c r="J692" s="5"/>
+      <c r="K692" s="5"/>
     </row>
     <row r="693">
       <c r="A693" s="5"/>
       <c r="F693" s="5"/>
+      <c r="J693" s="5"/>
+      <c r="K693" s="5"/>
     </row>
     <row r="694">
       <c r="A694" s="5"/>
       <c r="F694" s="5"/>
+      <c r="J694" s="5"/>
+      <c r="K694" s="5"/>
     </row>
     <row r="695">
       <c r="A695" s="5"/>
       <c r="F695" s="5"/>
+      <c r="J695" s="5"/>
+      <c r="K695" s="5"/>
     </row>
     <row r="696">
       <c r="A696" s="5"/>
       <c r="F696" s="5"/>
+      <c r="J696" s="5"/>
+      <c r="K696" s="5"/>
     </row>
     <row r="697">
       <c r="A697" s="5"/>
       <c r="F697" s="5"/>
+      <c r="J697" s="5"/>
+      <c r="K697" s="5"/>
     </row>
     <row r="698">
       <c r="A698" s="5"/>
       <c r="F698" s="5"/>
+      <c r="J698" s="5"/>
+      <c r="K698" s="5"/>
     </row>
     <row r="699">
       <c r="A699" s="5"/>
       <c r="F699" s="5"/>
+      <c r="J699" s="5"/>
+      <c r="K699" s="5"/>
     </row>
     <row r="700">
       <c r="A700" s="5"/>
       <c r="F700" s="5"/>
+      <c r="J700" s="5"/>
+      <c r="K700" s="5"/>
     </row>
     <row r="701">
       <c r="A701" s="5"/>
       <c r="F701" s="5"/>
+      <c r="J701" s="5"/>
+      <c r="K701" s="5"/>
     </row>
     <row r="702">
       <c r="A702" s="5"/>
       <c r="F702" s="5"/>
+      <c r="J702" s="5"/>
+      <c r="K702" s="5"/>
     </row>
     <row r="703">
       <c r="A703" s="5"/>
       <c r="F703" s="5"/>
+      <c r="J703" s="5"/>
+      <c r="K703" s="5"/>
     </row>
     <row r="704">
       <c r="A704" s="5"/>
       <c r="F704" s="5"/>
+      <c r="J704" s="5"/>
+      <c r="K704" s="5"/>
     </row>
     <row r="705">
       <c r="A705" s="5"/>
       <c r="F705" s="5"/>
+      <c r="J705" s="5"/>
+      <c r="K705" s="5"/>
     </row>
     <row r="706">
       <c r="A706" s="5"/>
       <c r="F706" s="5"/>
+      <c r="J706" s="5"/>
+      <c r="K706" s="5"/>
     </row>
     <row r="707">
       <c r="A707" s="5"/>
       <c r="F707" s="5"/>
+      <c r="J707" s="5"/>
+      <c r="K707" s="5"/>
     </row>
     <row r="708">
       <c r="A708" s="5"/>
       <c r="F708" s="5"/>
+      <c r="J708" s="5"/>
+      <c r="K708" s="5"/>
     </row>
     <row r="709">
       <c r="A709" s="5"/>
       <c r="F709" s="5"/>
+      <c r="J709" s="5"/>
+      <c r="K709" s="5"/>
     </row>
     <row r="710">
       <c r="A710" s="5"/>
       <c r="F710" s="5"/>
+      <c r="J710" s="5"/>
+      <c r="K710" s="5"/>
     </row>
     <row r="711">
       <c r="A711" s="5"/>
       <c r="F711" s="5"/>
+      <c r="J711" s="5"/>
+      <c r="K711" s="5"/>
     </row>
     <row r="712">
       <c r="A712" s="5"/>
       <c r="F712" s="5"/>
+      <c r="J712" s="5"/>
+      <c r="K712" s="5"/>
     </row>
     <row r="713">
       <c r="A713" s="5"/>
       <c r="F713" s="5"/>
+      <c r="J713" s="5"/>
+      <c r="K713" s="5"/>
     </row>
     <row r="714">
       <c r="A714" s="5"/>
       <c r="F714" s="5"/>
+      <c r="J714" s="5"/>
+      <c r="K714" s="5"/>
     </row>
     <row r="715">
       <c r="A715" s="5"/>
       <c r="F715" s="5"/>
+      <c r="J715" s="5"/>
+      <c r="K715" s="5"/>
     </row>
     <row r="716">
       <c r="A716" s="5"/>
       <c r="F716" s="5"/>
+      <c r="J716" s="5"/>
+      <c r="K716" s="5"/>
     </row>
     <row r="717">
       <c r="A717" s="5"/>
       <c r="F717" s="5"/>
+      <c r="J717" s="5"/>
+      <c r="K717" s="5"/>
     </row>
     <row r="718">
       <c r="A718" s="5"/>
       <c r="F718" s="5"/>
+      <c r="J718" s="5"/>
+      <c r="K718" s="5"/>
     </row>
     <row r="719">
       <c r="A719" s="5"/>
       <c r="F719" s="5"/>
+      <c r="J719" s="5"/>
+      <c r="K719" s="5"/>
     </row>
     <row r="720">
       <c r="A720" s="5"/>
       <c r="F720" s="5"/>
+      <c r="J720" s="5"/>
+      <c r="K720" s="5"/>
     </row>
     <row r="721">
       <c r="A721" s="5"/>
       <c r="F721" s="5"/>
+      <c r="J721" s="5"/>
+      <c r="K721" s="5"/>
     </row>
     <row r="722">
       <c r="A722" s="5"/>
       <c r="F722" s="5"/>
+      <c r="J722" s="5"/>
+      <c r="K722" s="5"/>
     </row>
     <row r="723">
       <c r="A723" s="5"/>
       <c r="F723" s="5"/>
+      <c r="J723" s="5"/>
+      <c r="K723" s="5"/>
     </row>
     <row r="724">
       <c r="A724" s="5"/>
       <c r="F724" s="5"/>
+      <c r="J724" s="5"/>
+      <c r="K724" s="5"/>
     </row>
     <row r="725">
       <c r="A725" s="5"/>
       <c r="F725" s="5"/>
+      <c r="J725" s="5"/>
+      <c r="K725" s="5"/>
     </row>
     <row r="726">
       <c r="A726" s="5"/>
       <c r="F726" s="5"/>
+      <c r="J726" s="5"/>
+      <c r="K726" s="5"/>
     </row>
     <row r="727">
       <c r="A727" s="5"/>
       <c r="F727" s="5"/>
+      <c r="J727" s="5"/>
+      <c r="K727" s="5"/>
     </row>
     <row r="728">
       <c r="A728" s="5"/>
       <c r="F728" s="5"/>
+      <c r="J728" s="5"/>
+      <c r="K728" s="5"/>
     </row>
     <row r="729">
       <c r="A729" s="5"/>
       <c r="F729" s="5"/>
+      <c r="J729" s="5"/>
+      <c r="K729" s="5"/>
     </row>
     <row r="730">
       <c r="A730" s="5"/>
       <c r="F730" s="5"/>
+      <c r="J730" s="5"/>
+      <c r="K730" s="5"/>
     </row>
     <row r="731">
       <c r="A731" s="5"/>
       <c r="F731" s="5"/>
+      <c r="J731" s="5"/>
+      <c r="K731" s="5"/>
     </row>
     <row r="732">
       <c r="A732" s="5"/>
       <c r="F732" s="5"/>
+      <c r="J732" s="5"/>
+      <c r="K732" s="5"/>
     </row>
     <row r="733">
       <c r="A733" s="5"/>
       <c r="F733" s="5"/>
+      <c r="J733" s="5"/>
+      <c r="K733" s="5"/>
     </row>
     <row r="734">
       <c r="A734" s="5"/>
       <c r="F734" s="5"/>
+      <c r="J734" s="5"/>
+      <c r="K734" s="5"/>
     </row>
     <row r="735">
       <c r="A735" s="5"/>
       <c r="F735" s="5"/>
+      <c r="J735" s="5"/>
+      <c r="K735" s="5"/>
     </row>
     <row r="736">
       <c r="A736" s="5"/>
       <c r="F736" s="5"/>
+      <c r="J736" s="5"/>
+      <c r="K736" s="5"/>
     </row>
     <row r="737">
       <c r="A737" s="5"/>
       <c r="F737" s="5"/>
+      <c r="J737" s="5"/>
+      <c r="K737" s="5"/>
     </row>
     <row r="738">
       <c r="A738" s="5"/>
       <c r="F738" s="5"/>
+      <c r="J738" s="5"/>
+      <c r="K738" s="5"/>
     </row>
     <row r="739">
       <c r="A739" s="5"/>
       <c r="F739" s="5"/>
+      <c r="J739" s="5"/>
+      <c r="K739" s="5"/>
     </row>
     <row r="740">
       <c r="A740" s="5"/>
       <c r="F740" s="5"/>
+      <c r="J740" s="5"/>
+      <c r="K740" s="5"/>
     </row>
     <row r="741">
       <c r="A741" s="5"/>
       <c r="F741" s="5"/>
+      <c r="J741" s="5"/>
+      <c r="K741" s="5"/>
     </row>
     <row r="742">
       <c r="A742" s="5"/>
       <c r="F742" s="5"/>
+      <c r="J742" s="5"/>
+      <c r="K742" s="5"/>
     </row>
     <row r="743">
       <c r="A743" s="5"/>
       <c r="F743" s="5"/>
+      <c r="J743" s="5"/>
+      <c r="K743" s="5"/>
     </row>
     <row r="744">
       <c r="A744" s="5"/>
       <c r="F744" s="5"/>
+      <c r="J744" s="5"/>
+      <c r="K744" s="5"/>
     </row>
     <row r="745">
       <c r="A745" s="5"/>
       <c r="F745" s="5"/>
+      <c r="J745" s="5"/>
+      <c r="K745" s="5"/>
     </row>
     <row r="746">
       <c r="A746" s="5"/>
       <c r="F746" s="5"/>
+      <c r="J746" s="5"/>
+      <c r="K746" s="5"/>
     </row>
     <row r="747">
       <c r="A747" s="5"/>
       <c r="F747" s="5"/>
+      <c r="J747" s="5"/>
+      <c r="K747" s="5"/>
     </row>
     <row r="748">
       <c r="A748" s="5"/>
       <c r="F748" s="5"/>
+      <c r="J748" s="5"/>
+      <c r="K748" s="5"/>
     </row>
     <row r="749">
       <c r="A749" s="5"/>
       <c r="F749" s="5"/>
+      <c r="J749" s="5"/>
+      <c r="K749" s="5"/>
     </row>
     <row r="750">
       <c r="A750" s="5"/>
       <c r="F750" s="5"/>
+      <c r="J750" s="5"/>
+      <c r="K750" s="5"/>
     </row>
     <row r="751">
       <c r="A751" s="5"/>
       <c r="F751" s="5"/>
+      <c r="J751" s="5"/>
+      <c r="K751" s="5"/>
     </row>
     <row r="752">
       <c r="A752" s="5"/>
       <c r="F752" s="5"/>
+      <c r="J752" s="5"/>
+      <c r="K752" s="5"/>
     </row>
     <row r="753">
       <c r="A753" s="5"/>
       <c r="F753" s="5"/>
+      <c r="J753" s="5"/>
+      <c r="K753" s="5"/>
     </row>
     <row r="754">
       <c r="A754" s="5"/>
       <c r="F754" s="5"/>
+      <c r="J754" s="5"/>
+      <c r="K754" s="5"/>
     </row>
     <row r="755">
       <c r="A755" s="5"/>
       <c r="F755" s="5"/>
+      <c r="J755" s="5"/>
+      <c r="K755" s="5"/>
     </row>
     <row r="756">
       <c r="A756" s="5"/>
       <c r="F756" s="5"/>
+      <c r="J756" s="5"/>
+      <c r="K756" s="5"/>
     </row>
     <row r="757">
       <c r="A757" s="5"/>
       <c r="F757" s="5"/>
+      <c r="J757" s="5"/>
+      <c r="K757" s="5"/>
     </row>
     <row r="758">
       <c r="A758" s="5"/>
       <c r="F758" s="5"/>
+      <c r="J758" s="5"/>
+      <c r="K758" s="5"/>
     </row>
     <row r="759">
       <c r="A759" s="5"/>
       <c r="F759" s="5"/>
+      <c r="J759" s="5"/>
+      <c r="K759" s="5"/>
     </row>
     <row r="760">
       <c r="A760" s="5"/>
       <c r="F760" s="5"/>
+      <c r="J760" s="5"/>
+      <c r="K760" s="5"/>
     </row>
     <row r="761">
       <c r="A761" s="5"/>
       <c r="F761" s="5"/>
+      <c r="J761" s="5"/>
+      <c r="K761" s="5"/>
     </row>
     <row r="762">
       <c r="A762" s="5"/>
       <c r="F762" s="5"/>
+      <c r="J762" s="5"/>
+      <c r="K762" s="5"/>
     </row>
     <row r="763">
       <c r="A763" s="5"/>
       <c r="F763" s="5"/>
+      <c r="J763" s="5"/>
+      <c r="K763" s="5"/>
     </row>
     <row r="764">
       <c r="A764" s="5"/>
       <c r="F764" s="5"/>
+      <c r="J764" s="5"/>
+      <c r="K764" s="5"/>
     </row>
     <row r="765">
       <c r="A765" s="5"/>
       <c r="F765" s="5"/>
+      <c r="J765" s="5"/>
+      <c r="K765" s="5"/>
     </row>
     <row r="766">
       <c r="A766" s="5"/>
       <c r="F766" s="5"/>
+      <c r="J766" s="5"/>
+      <c r="K766" s="5"/>
     </row>
     <row r="767">
       <c r="A767" s="5"/>
       <c r="F767" s="5"/>
+      <c r="J767" s="5"/>
+      <c r="K767" s="5"/>
     </row>
     <row r="768">
       <c r="A768" s="5"/>
       <c r="F768" s="5"/>
+      <c r="J768" s="5"/>
+      <c r="K768" s="5"/>
     </row>
     <row r="769">
       <c r="A769" s="5"/>
       <c r="F769" s="5"/>
+      <c r="J769" s="5"/>
+      <c r="K769" s="5"/>
     </row>
     <row r="770">
       <c r="A770" s="5"/>
       <c r="F770" s="5"/>
+      <c r="J770" s="5"/>
+      <c r="K770" s="5"/>
     </row>
     <row r="771">
       <c r="A771" s="5"/>
       <c r="F771" s="5"/>
+      <c r="J771" s="5"/>
+      <c r="K771" s="5"/>
     </row>
     <row r="772">
       <c r="A772" s="5"/>
       <c r="F772" s="5"/>
+      <c r="J772" s="5"/>
+      <c r="K772" s="5"/>
     </row>
     <row r="773">
       <c r="A773" s="5"/>
       <c r="F773" s="5"/>
+      <c r="J773" s="5"/>
+      <c r="K773" s="5"/>
     </row>
     <row r="774">
       <c r="A774" s="5"/>
       <c r="F774" s="5"/>
+      <c r="J774" s="5"/>
+      <c r="K774" s="5"/>
     </row>
     <row r="775">
       <c r="A775" s="5"/>
       <c r="F775" s="5"/>
+      <c r="J775" s="5"/>
+      <c r="K775" s="5"/>
     </row>
     <row r="776">
       <c r="A776" s="5"/>
       <c r="F776" s="5"/>
+      <c r="J776" s="5"/>
+      <c r="K776" s="5"/>
     </row>
     <row r="777">
       <c r="A777" s="5"/>
       <c r="F777" s="5"/>
+      <c r="J777" s="5"/>
+      <c r="K777" s="5"/>
     </row>
     <row r="778">
       <c r="A778" s="5"/>
       <c r="F778" s="5"/>
+      <c r="J778" s="5"/>
+      <c r="K778" s="5"/>
     </row>
     <row r="779">
       <c r="A779" s="5"/>
       <c r="F779" s="5"/>
+      <c r="J779" s="5"/>
+      <c r="K779" s="5"/>
     </row>
     <row r="780">
       <c r="A780" s="5"/>
       <c r="F780" s="5"/>
+      <c r="J780" s="5"/>
+      <c r="K780" s="5"/>
     </row>
     <row r="781">
       <c r="A781" s="5"/>
       <c r="F781" s="5"/>
+      <c r="J781" s="5"/>
+      <c r="K781" s="5"/>
     </row>
     <row r="782">
       <c r="A782" s="5"/>
       <c r="F782" s="5"/>
+      <c r="J782" s="5"/>
+      <c r="K782" s="5"/>
     </row>
     <row r="783">
       <c r="A783" s="5"/>
       <c r="F783" s="5"/>
+      <c r="J783" s="5"/>
+      <c r="K783" s="5"/>
     </row>
     <row r="784">
       <c r="A784" s="5"/>
       <c r="F784" s="5"/>
+      <c r="J784" s="5"/>
+      <c r="K784" s="5"/>
     </row>
     <row r="785">
       <c r="A785" s="5"/>
       <c r="F785" s="5"/>
+      <c r="J785" s="5"/>
+      <c r="K785" s="5"/>
     </row>
     <row r="786">
       <c r="A786" s="5"/>
       <c r="F786" s="5"/>
+      <c r="J786" s="5"/>
+      <c r="K786" s="5"/>
     </row>
     <row r="787">
       <c r="A787" s="5"/>
       <c r="F787" s="5"/>
+      <c r="J787" s="5"/>
+      <c r="K787" s="5"/>
     </row>
     <row r="788">
       <c r="A788" s="5"/>
       <c r="F788" s="5"/>
+      <c r="J788" s="5"/>
+      <c r="K788" s="5"/>
     </row>
     <row r="789">
       <c r="A789" s="5"/>
       <c r="F789" s="5"/>
+      <c r="J789" s="5"/>
+      <c r="K789" s="5"/>
     </row>
     <row r="790">
       <c r="A790" s="5"/>
       <c r="F790" s="5"/>
+      <c r="J790" s="5"/>
+      <c r="K790" s="5"/>
     </row>
     <row r="791">
       <c r="A791" s="5"/>
       <c r="F791" s="5"/>
+      <c r="J791" s="5"/>
+      <c r="K791" s="5"/>
     </row>
     <row r="792">
       <c r="A792" s="5"/>
       <c r="F792" s="5"/>
+      <c r="J792" s="5"/>
+      <c r="K792" s="5"/>
     </row>
     <row r="793">
       <c r="A793" s="5"/>
       <c r="F793" s="5"/>
+      <c r="J793" s="5"/>
+      <c r="K793" s="5"/>
     </row>
     <row r="794">
       <c r="A794" s="5"/>
       <c r="F794" s="5"/>
+      <c r="J794" s="5"/>
+      <c r="K794" s="5"/>
     </row>
     <row r="795">
       <c r="A795" s="5"/>
       <c r="F795" s="5"/>
+      <c r="J795" s="5"/>
+      <c r="K795" s="5"/>
     </row>
     <row r="796">
       <c r="A796" s="5"/>
       <c r="F796" s="5"/>
+      <c r="J796" s="5"/>
+      <c r="K796" s="5"/>
     </row>
     <row r="797">
       <c r="A797" s="5"/>
       <c r="F797" s="5"/>
+      <c r="J797" s="5"/>
+      <c r="K797" s="5"/>
     </row>
     <row r="798">
       <c r="A798" s="5"/>
       <c r="F798" s="5"/>
+      <c r="J798" s="5"/>
+      <c r="K798" s="5"/>
     </row>
     <row r="799">
       <c r="A799" s="5"/>
       <c r="F799" s="5"/>
+      <c r="J799" s="5"/>
+      <c r="K799" s="5"/>
     </row>
     <row r="800">
       <c r="A800" s="5"/>
       <c r="F800" s="5"/>
+      <c r="J800" s="5"/>
+      <c r="K800" s="5"/>
     </row>
     <row r="801">
       <c r="A801" s="5"/>
       <c r="F801" s="5"/>
+      <c r="J801" s="5"/>
+      <c r="K801" s="5"/>
     </row>
     <row r="802">
       <c r="A802" s="5"/>
       <c r="F802" s="5"/>
+      <c r="J802" s="5"/>
+      <c r="K802" s="5"/>
     </row>
     <row r="803">
       <c r="A803" s="5"/>
       <c r="F803" s="5"/>
+      <c r="J803" s="5"/>
+      <c r="K803" s="5"/>
     </row>
     <row r="804">
       <c r="A804" s="5"/>
       <c r="F804" s="5"/>
+      <c r="J804" s="5"/>
+      <c r="K804" s="5"/>
     </row>
     <row r="805">
       <c r="A805" s="5"/>
       <c r="F805" s="5"/>
+      <c r="J805" s="5"/>
+      <c r="K805" s="5"/>
     </row>
     <row r="806">
       <c r="A806" s="5"/>
       <c r="F806" s="5"/>
+      <c r="J806" s="5"/>
+      <c r="K806" s="5"/>
     </row>
     <row r="807">
       <c r="A807" s="5"/>
       <c r="F807" s="5"/>
+      <c r="J807" s="5"/>
+      <c r="K807" s="5"/>
     </row>
     <row r="808">
       <c r="A808" s="5"/>
       <c r="F808" s="5"/>
+      <c r="J808" s="5"/>
+      <c r="K808" s="5"/>
     </row>
     <row r="809">
       <c r="A809" s="5"/>
       <c r="F809" s="5"/>
+      <c r="J809" s="5"/>
+      <c r="K809" s="5"/>
     </row>
     <row r="810">
       <c r="A810" s="5"/>
       <c r="F810" s="5"/>
+      <c r="J810" s="5"/>
+      <c r="K810" s="5"/>
     </row>
     <row r="811">
       <c r="A811" s="5"/>
       <c r="F811" s="5"/>
+      <c r="J811" s="5"/>
+      <c r="K811" s="5"/>
     </row>
     <row r="812">
       <c r="A812" s="5"/>
       <c r="F812" s="5"/>
+      <c r="J812" s="5"/>
+      <c r="K812" s="5"/>
     </row>
     <row r="813">
       <c r="A813" s="5"/>
       <c r="F813" s="5"/>
+      <c r="J813" s="5"/>
+      <c r="K813" s="5"/>
     </row>
     <row r="814">
       <c r="A814" s="5"/>
       <c r="F814" s="5"/>
+      <c r="J814" s="5"/>
+      <c r="K814" s="5"/>
     </row>
     <row r="815">
       <c r="A815" s="5"/>
       <c r="F815" s="5"/>
+      <c r="J815" s="5"/>
+      <c r="K815" s="5"/>
     </row>
     <row r="816">
       <c r="A816" s="5"/>
       <c r="F816" s="5"/>
+      <c r="J816" s="5"/>
+      <c r="K816" s="5"/>
     </row>
     <row r="817">
       <c r="A817" s="5"/>
       <c r="F817" s="5"/>
+      <c r="J817" s="5"/>
+      <c r="K817" s="5"/>
     </row>
     <row r="818">
       <c r="A818" s="5"/>
       <c r="F818" s="5"/>
+      <c r="J818" s="5"/>
+      <c r="K818" s="5"/>
     </row>
     <row r="819">
       <c r="A819" s="5"/>
       <c r="F819" s="5"/>
+      <c r="J819" s="5"/>
+      <c r="K819" s="5"/>
     </row>
     <row r="820">
       <c r="A820" s="5"/>
       <c r="F820" s="5"/>
+      <c r="J820" s="5"/>
+      <c r="K820" s="5"/>
     </row>
     <row r="821">
       <c r="A821" s="5"/>
       <c r="F821" s="5"/>
+      <c r="J821" s="5"/>
+      <c r="K821" s="5"/>
     </row>
     <row r="822">
       <c r="A822" s="5"/>
       <c r="F822" s="5"/>
+      <c r="J822" s="5"/>
+      <c r="K822" s="5"/>
     </row>
     <row r="823">
       <c r="A823" s="5"/>
       <c r="F823" s="5"/>
+      <c r="J823" s="5"/>
+      <c r="K823" s="5"/>
     </row>
     <row r="824">
       <c r="A824" s="5"/>
       <c r="F824" s="5"/>
+      <c r="J824" s="5"/>
+      <c r="K824" s="5"/>
     </row>
     <row r="825">
       <c r="A825" s="5"/>
       <c r="F825" s="5"/>
+      <c r="J825" s="5"/>
+      <c r="K825" s="5"/>
     </row>
     <row r="826">
       <c r="A826" s="5"/>
       <c r="F826" s="5"/>
+      <c r="J826" s="5"/>
+      <c r="K826" s="5"/>
     </row>
     <row r="827">
       <c r="A827" s="5"/>
       <c r="F827" s="5"/>
+      <c r="J827" s="5"/>
+      <c r="K827" s="5"/>
     </row>
     <row r="828">
       <c r="A828" s="5"/>
       <c r="F828" s="5"/>
+      <c r="J828" s="5"/>
+      <c r="K828" s="5"/>
     </row>
     <row r="829">
       <c r="A829" s="5"/>
       <c r="F829" s="5"/>
+      <c r="J829" s="5"/>
+      <c r="K829" s="5"/>
     </row>
     <row r="830">
       <c r="A830" s="5"/>
       <c r="F830" s="5"/>
+      <c r="J830" s="5"/>
+      <c r="K830" s="5"/>
     </row>
     <row r="831">
       <c r="A831" s="5"/>
       <c r="F831" s="5"/>
+      <c r="J831" s="5"/>
+      <c r="K831" s="5"/>
     </row>
     <row r="832">
       <c r="A832" s="5"/>
       <c r="F832" s="5"/>
+      <c r="J832" s="5"/>
+      <c r="K832" s="5"/>
     </row>
     <row r="833">
       <c r="A833" s="5"/>
       <c r="F833" s="5"/>
+      <c r="J833" s="5"/>
+      <c r="K833" s="5"/>
     </row>
     <row r="834">
       <c r="A834" s="5"/>
       <c r="F834" s="5"/>
+      <c r="J834" s="5"/>
+      <c r="K834" s="5"/>
     </row>
     <row r="835">
       <c r="A835" s="5"/>
       <c r="F835" s="5"/>
+      <c r="J835" s="5"/>
+      <c r="K835" s="5"/>
     </row>
     <row r="836">
       <c r="A836" s="5"/>
       <c r="F836" s="5"/>
+      <c r="J836" s="5"/>
+      <c r="K836" s="5"/>
     </row>
     <row r="837">
       <c r="A837" s="5"/>
       <c r="F837" s="5"/>
+      <c r="J837" s="5"/>
+      <c r="K837" s="5"/>
     </row>
     <row r="838">
       <c r="A838" s="5"/>
       <c r="F838" s="5"/>
+      <c r="J838" s="5"/>
+      <c r="K838" s="5"/>
     </row>
     <row r="839">
       <c r="A839" s="5"/>
       <c r="F839" s="5"/>
+      <c r="J839" s="5"/>
+      <c r="K839" s="5"/>
     </row>
     <row r="840">
       <c r="A840" s="5"/>
       <c r="F840" s="5"/>
+      <c r="J840" s="5"/>
+      <c r="K840" s="5"/>
     </row>
     <row r="841">
       <c r="A841" s="5"/>
       <c r="F841" s="5"/>
+      <c r="J841" s="5"/>
+      <c r="K841" s="5"/>
     </row>
     <row r="842">
       <c r="A842" s="5"/>
       <c r="F842" s="5"/>
+      <c r="J842" s="5"/>
+      <c r="K842" s="5"/>
     </row>
     <row r="843">
       <c r="A843" s="5"/>
       <c r="F843" s="5"/>
+      <c r="J843" s="5"/>
+      <c r="K843" s="5"/>
     </row>
     <row r="844">
       <c r="A844" s="5"/>
       <c r="F844" s="5"/>
+      <c r="J844" s="5"/>
+      <c r="K844" s="5"/>
     </row>
     <row r="845">
       <c r="A845" s="5"/>
       <c r="F845" s="5"/>
+      <c r="J845" s="5"/>
+      <c r="K845" s="5"/>
     </row>
     <row r="846">
       <c r="A846" s="5"/>
       <c r="F846" s="5"/>
+      <c r="J846" s="5"/>
+      <c r="K846" s="5"/>
     </row>
     <row r="847">
       <c r="A847" s="5"/>
       <c r="F847" s="5"/>
+      <c r="J847" s="5"/>
+      <c r="K847" s="5"/>
     </row>
     <row r="848">
       <c r="A848" s="5"/>
       <c r="F848" s="5"/>
+      <c r="J848" s="5"/>
+      <c r="K848" s="5"/>
     </row>
     <row r="849">
       <c r="A849" s="5"/>
       <c r="F849" s="5"/>
+      <c r="J849" s="5"/>
+      <c r="K849" s="5"/>
     </row>
     <row r="850">
       <c r="A850" s="5"/>
       <c r="F850" s="5"/>
+      <c r="J850" s="5"/>
+      <c r="K850" s="5"/>
     </row>
     <row r="851">
       <c r="A851" s="5"/>
       <c r="F851" s="5"/>
+      <c r="J851" s="5"/>
+      <c r="K851" s="5"/>
     </row>
     <row r="852">
       <c r="A852" s="5"/>
       <c r="F852" s="5"/>
+      <c r="J852" s="5"/>
+      <c r="K852" s="5"/>
     </row>
     <row r="853">
       <c r="A853" s="5"/>
       <c r="F853" s="5"/>
+      <c r="J853" s="5"/>
+      <c r="K853" s="5"/>
     </row>
     <row r="854">
       <c r="A854" s="5"/>
       <c r="F854" s="5"/>
+      <c r="J854" s="5"/>
+      <c r="K854" s="5"/>
     </row>
     <row r="855">
       <c r="A855" s="5"/>
       <c r="F855" s="5"/>
+      <c r="J855" s="5"/>
+      <c r="K855" s="5"/>
     </row>
     <row r="856">
       <c r="A856" s="5"/>
       <c r="F856" s="5"/>
+      <c r="J856" s="5"/>
+      <c r="K856" s="5"/>
     </row>
     <row r="857">
       <c r="A857" s="5"/>
       <c r="F857" s="5"/>
+      <c r="J857" s="5"/>
+      <c r="K857" s="5"/>
     </row>
     <row r="858">
       <c r="A858" s="5"/>
       <c r="F858" s="5"/>
+      <c r="J858" s="5"/>
+      <c r="K858" s="5"/>
     </row>
     <row r="859">
       <c r="A859" s="5"/>
       <c r="F859" s="5"/>
+      <c r="J859" s="5"/>
+      <c r="K859" s="5"/>
     </row>
     <row r="860">
       <c r="A860" s="5"/>
       <c r="F860" s="5"/>
+      <c r="J860" s="5"/>
+      <c r="K860" s="5"/>
     </row>
     <row r="861">
       <c r="A861" s="5"/>
       <c r="F861" s="5"/>
+      <c r="J861" s="5"/>
+      <c r="K861" s="5"/>
     </row>
     <row r="862">
       <c r="A862" s="5"/>
       <c r="F862" s="5"/>
+      <c r="J862" s="5"/>
+      <c r="K862" s="5"/>
     </row>
     <row r="863">
       <c r="A863" s="5"/>
       <c r="F863" s="5"/>
+      <c r="J863" s="5"/>
+      <c r="K863" s="5"/>
     </row>
     <row r="864">
       <c r="A864" s="5"/>
       <c r="F864" s="5"/>
+      <c r="J864" s="5"/>
+      <c r="K864" s="5"/>
     </row>
     <row r="865">
       <c r="A865" s="5"/>
       <c r="F865" s="5"/>
+      <c r="J865" s="5"/>
+      <c r="K865" s="5"/>
     </row>
     <row r="866">
       <c r="A866" s="5"/>
       <c r="F866" s="5"/>
+      <c r="J866" s="5"/>
+      <c r="K866" s="5"/>
     </row>
     <row r="867">
       <c r="A867" s="5"/>
       <c r="F867" s="5"/>
+      <c r="J867" s="5"/>
+      <c r="K867" s="5"/>
     </row>
     <row r="868">
       <c r="A868" s="5"/>
       <c r="F868" s="5"/>
+      <c r="J868" s="5"/>
+      <c r="K868" s="5"/>
     </row>
     <row r="869">
       <c r="A869" s="5"/>
       <c r="F869" s="5"/>
+      <c r="J869" s="5"/>
+      <c r="K869" s="5"/>
     </row>
     <row r="870">
       <c r="A870" s="5"/>
       <c r="F870" s="5"/>
+      <c r="J870" s="5"/>
+      <c r="K870" s="5"/>
     </row>
     <row r="871">
       <c r="A871" s="5"/>
       <c r="F871" s="5"/>
+      <c r="J871" s="5"/>
+      <c r="K871" s="5"/>
     </row>
     <row r="872">
       <c r="A872" s="5"/>
       <c r="F872" s="5"/>
+      <c r="J872" s="5"/>
+      <c r="K872" s="5"/>
     </row>
     <row r="873">
       <c r="A873" s="5"/>
       <c r="F873" s="5"/>
+      <c r="J873" s="5"/>
+      <c r="K873" s="5"/>
     </row>
     <row r="874">
       <c r="A874" s="5"/>
       <c r="F874" s="5"/>
+      <c r="J874" s="5"/>
+      <c r="K874" s="5"/>
     </row>
     <row r="875">
       <c r="A875" s="5"/>
       <c r="F875" s="5"/>
+      <c r="J875" s="5"/>
+      <c r="K875" s="5"/>
     </row>
     <row r="876">
       <c r="A876" s="5"/>
       <c r="F876" s="5"/>
+      <c r="J876" s="5"/>
+      <c r="K876" s="5"/>
     </row>
     <row r="877">
       <c r="A877" s="5"/>
       <c r="F877" s="5"/>
+      <c r="J877" s="5"/>
+      <c r="K877" s="5"/>
     </row>
     <row r="878">
       <c r="A878" s="5"/>
       <c r="F878" s="5"/>
+      <c r="J878" s="5"/>
+      <c r="K878" s="5"/>
     </row>
     <row r="879">
       <c r="A879" s="5"/>
       <c r="F879" s="5"/>
+      <c r="J879" s="5"/>
+      <c r="K879" s="5"/>
     </row>
     <row r="880">
       <c r="A880" s="5"/>
       <c r="F880" s="5"/>
+      <c r="J880" s="5"/>
+      <c r="K880" s="5"/>
     </row>
     <row r="881">
       <c r="A881" s="5"/>
       <c r="F881" s="5"/>
+      <c r="J881" s="5"/>
+      <c r="K881" s="5"/>
     </row>
     <row r="882">
       <c r="A882" s="5"/>
       <c r="F882" s="5"/>
+      <c r="J882" s="5"/>
+      <c r="K882" s="5"/>
     </row>
     <row r="883">
       <c r="A883" s="5"/>
       <c r="F883" s="5"/>
+      <c r="J883" s="5"/>
+      <c r="K883" s="5"/>
     </row>
     <row r="884">
       <c r="A884" s="5"/>
       <c r="F884" s="5"/>
+      <c r="J884" s="5"/>
+      <c r="K884" s="5"/>
     </row>
     <row r="885">
       <c r="A885" s="5"/>
       <c r="F885" s="5"/>
+      <c r="J885" s="5"/>
+      <c r="K885" s="5"/>
     </row>
     <row r="886">
       <c r="A886" s="5"/>
       <c r="F886" s="5"/>
+      <c r="J886" s="5"/>
+      <c r="K886" s="5"/>
     </row>
     <row r="887">
       <c r="A887" s="5"/>
       <c r="F887" s="5"/>
+      <c r="J887" s="5"/>
+      <c r="K887" s="5"/>
     </row>
     <row r="888">
       <c r="A888" s="5"/>
       <c r="F888" s="5"/>
+      <c r="J888" s="5"/>
+      <c r="K888" s="5"/>
     </row>
     <row r="889">
       <c r="A889" s="5"/>
       <c r="F889" s="5"/>
+      <c r="J889" s="5"/>
+      <c r="K889" s="5"/>
     </row>
     <row r="890">
       <c r="A890" s="5"/>
       <c r="F890" s="5"/>
+      <c r="J890" s="5"/>
+      <c r="K890" s="5"/>
     </row>
     <row r="891">
       <c r="A891" s="5"/>
       <c r="F891" s="5"/>
+      <c r="J891" s="5"/>
+      <c r="K891" s="5"/>
     </row>
     <row r="892">
       <c r="A892" s="5"/>
       <c r="F892" s="5"/>
+      <c r="J892" s="5"/>
+      <c r="K892" s="5"/>
     </row>
     <row r="893">
       <c r="A893" s="5"/>
       <c r="F893" s="5"/>
+      <c r="J893" s="5"/>
+      <c r="K893" s="5"/>
     </row>
     <row r="894">
       <c r="A894" s="5"/>
       <c r="F894" s="5"/>
+      <c r="J894" s="5"/>
+      <c r="K894" s="5"/>
     </row>
     <row r="895">
       <c r="A895" s="5"/>
       <c r="F895" s="5"/>
+      <c r="J895" s="5"/>
+      <c r="K895" s="5"/>
     </row>
     <row r="896">
       <c r="A896" s="5"/>
       <c r="F896" s="5"/>
+      <c r="J896" s="5"/>
+      <c r="K896" s="5"/>
     </row>
     <row r="897">
       <c r="A897" s="5"/>
       <c r="F897" s="5"/>
+      <c r="J897" s="5"/>
+      <c r="K897" s="5"/>
     </row>
     <row r="898">
       <c r="A898" s="5"/>
       <c r="F898" s="5"/>
+      <c r="J898" s="5"/>
+      <c r="K898" s="5"/>
     </row>
     <row r="899">
       <c r="A899" s="5"/>
       <c r="F899" s="5"/>
+      <c r="J899" s="5"/>
+      <c r="K899" s="5"/>
     </row>
     <row r="900">
       <c r="A900" s="5"/>
       <c r="F900" s="5"/>
+      <c r="J900" s="5"/>
+      <c r="K900" s="5"/>
     </row>
     <row r="901">
       <c r="A901" s="5"/>
       <c r="F901" s="5"/>
+      <c r="J901" s="5"/>
+      <c r="K901" s="5"/>
     </row>
     <row r="902">
       <c r="A902" s="5"/>
       <c r="F902" s="5"/>
+      <c r="J902" s="5"/>
+      <c r="K902" s="5"/>
     </row>
     <row r="903">
       <c r="A903" s="5"/>
       <c r="F903" s="5"/>
+      <c r="J903" s="5"/>
+      <c r="K903" s="5"/>
     </row>
     <row r="904">
       <c r="A904" s="5"/>
       <c r="F904" s="5"/>
+      <c r="J904" s="5"/>
+      <c r="K904" s="5"/>
     </row>
     <row r="905">
       <c r="A905" s="5"/>
       <c r="F905" s="5"/>
+      <c r="J905" s="5"/>
+      <c r="K905" s="5"/>
     </row>
     <row r="906">
       <c r="A906" s="5"/>
       <c r="F906" s="5"/>
+      <c r="J906" s="5"/>
+      <c r="K906" s="5"/>
     </row>
     <row r="907">
       <c r="A907" s="5"/>
       <c r="F907" s="5"/>
+      <c r="J907" s="5"/>
+      <c r="K907" s="5"/>
     </row>
     <row r="908">
       <c r="A908" s="5"/>
       <c r="F908" s="5"/>
+      <c r="J908" s="5"/>
+      <c r="K908" s="5"/>
     </row>
     <row r="909">
       <c r="A909" s="5"/>
       <c r="F909" s="5"/>
+      <c r="J909" s="5"/>
+      <c r="K909" s="5"/>
     </row>
     <row r="910">
       <c r="A910" s="5"/>
       <c r="F910" s="5"/>
+      <c r="J910" s="5"/>
+      <c r="K910" s="5"/>
     </row>
     <row r="911">
       <c r="A911" s="5"/>
       <c r="F911" s="5"/>
+      <c r="J911" s="5"/>
+      <c r="K911" s="5"/>
     </row>
     <row r="912">
       <c r="A912" s="5"/>
       <c r="F912" s="5"/>
+      <c r="J912" s="5"/>
+      <c r="K912" s="5"/>
     </row>
     <row r="913">
       <c r="A913" s="5"/>
       <c r="F913" s="5"/>
+      <c r="J913" s="5"/>
+      <c r="K913" s="5"/>
     </row>
     <row r="914">
       <c r="A914" s="5"/>
       <c r="F914" s="5"/>
+      <c r="J914" s="5"/>
+      <c r="K914" s="5"/>
     </row>
     <row r="915">
       <c r="A915" s="5"/>
       <c r="F915" s="5"/>
+      <c r="J915" s="5"/>
+      <c r="K915" s="5"/>
     </row>
     <row r="916">
       <c r="A916" s="5"/>
       <c r="F916" s="5"/>
+      <c r="J916" s="5"/>
+      <c r="K916" s="5"/>
     </row>
     <row r="917">
       <c r="A917" s="5"/>
       <c r="F917" s="5"/>
+      <c r="J917" s="5"/>
+      <c r="K917" s="5"/>
     </row>
     <row r="918">
       <c r="A918" s="5"/>
       <c r="F918" s="5"/>
+      <c r="J918" s="5"/>
+      <c r="K918" s="5"/>
     </row>
     <row r="919">
       <c r="A919" s="5"/>
       <c r="F919" s="5"/>
+      <c r="J919" s="5"/>
+      <c r="K919" s="5"/>
     </row>
     <row r="920">
       <c r="A920" s="5"/>
       <c r="F920" s="5"/>
+      <c r="J920" s="5"/>
+      <c r="K920" s="5"/>
     </row>
     <row r="921">
       <c r="A921" s="5"/>
       <c r="F921" s="5"/>
+      <c r="J921" s="5"/>
+      <c r="K921" s="5"/>
     </row>
     <row r="922">
       <c r="A922" s="5"/>
       <c r="F922" s="5"/>
+      <c r="J922" s="5"/>
+      <c r="K922" s="5"/>
     </row>
     <row r="923">
       <c r="A923" s="5"/>
       <c r="F923" s="5"/>
+      <c r="J923" s="5"/>
+      <c r="K923" s="5"/>
     </row>
     <row r="924">
       <c r="A924" s="5"/>
       <c r="F924" s="5"/>
+      <c r="J924" s="5"/>
+      <c r="K924" s="5"/>
     </row>
     <row r="925">
       <c r="A925" s="5"/>
       <c r="F925" s="5"/>
+      <c r="J925" s="5"/>
+      <c r="K925" s="5"/>
     </row>
     <row r="926">
       <c r="A926" s="5"/>
       <c r="F926" s="5"/>
+      <c r="J926" s="5"/>
+      <c r="K926" s="5"/>
     </row>
     <row r="927">
       <c r="A927" s="5"/>
       <c r="F927" s="5"/>
+      <c r="J927" s="5"/>
+      <c r="K927" s="5"/>
     </row>
     <row r="928">
       <c r="A928" s="5"/>
       <c r="F928" s="5"/>
+      <c r="J928" s="5"/>
+      <c r="K928" s="5"/>
     </row>
     <row r="929">
       <c r="A929" s="5"/>
       <c r="F929" s="5"/>
+      <c r="J929" s="5"/>
+      <c r="K929" s="5"/>
     </row>
     <row r="930">
       <c r="A930" s="5"/>
       <c r="F930" s="5"/>
+      <c r="J930" s="5"/>
+      <c r="K930" s="5"/>
     </row>
     <row r="931">
       <c r="A931" s="5"/>
       <c r="F931" s="5"/>
+      <c r="J931" s="5"/>
+      <c r="K931" s="5"/>
     </row>
     <row r="932">
       <c r="A932" s="5"/>
       <c r="F932" s="5"/>
+      <c r="J932" s="5"/>
+      <c r="K932" s="5"/>
     </row>
     <row r="933">
       <c r="A933" s="5"/>
       <c r="F933" s="5"/>
+      <c r="J933" s="5"/>
+      <c r="K933" s="5"/>
     </row>
     <row r="934">
       <c r="A934" s="5"/>
       <c r="F934" s="5"/>
+      <c r="J934" s="5"/>
+      <c r="K934" s="5"/>
     </row>
     <row r="935">
       <c r="A935" s="5"/>
       <c r="F935" s="5"/>
+      <c r="J935" s="5"/>
+      <c r="K935" s="5"/>
     </row>
     <row r="936">
       <c r="A936" s="5"/>
       <c r="F936" s="5"/>
+      <c r="J936" s="5"/>
+      <c r="K936" s="5"/>
     </row>
     <row r="937">
       <c r="A937" s="5"/>
       <c r="F937" s="5"/>
+      <c r="J937" s="5"/>
+      <c r="K937" s="5"/>
     </row>
     <row r="938">
       <c r="A938" s="5"/>
       <c r="F938" s="5"/>
+      <c r="J938" s="5"/>
+      <c r="K938" s="5"/>
     </row>
     <row r="939">
       <c r="A939" s="5"/>
       <c r="F939" s="5"/>
+      <c r="J939" s="5"/>
+      <c r="K939" s="5"/>
     </row>
     <row r="940">
       <c r="A940" s="5"/>
       <c r="F940" s="5"/>
+      <c r="J940" s="5"/>
+      <c r="K940" s="5"/>
     </row>
     <row r="941">
       <c r="A941" s="5"/>
       <c r="F941" s="5"/>
+      <c r="J941" s="5"/>
+      <c r="K941" s="5"/>
     </row>
     <row r="942">
       <c r="A942" s="5"/>
       <c r="F942" s="5"/>
+      <c r="J942" s="5"/>
+      <c r="K942" s="5"/>
     </row>
     <row r="943">
       <c r="A943" s="5"/>
       <c r="F943" s="5"/>
+      <c r="J943" s="5"/>
+      <c r="K943" s="5"/>
     </row>
     <row r="944">
       <c r="A944" s="5"/>
       <c r="F944" s="5"/>
+      <c r="J944" s="5"/>
+      <c r="K944" s="5"/>
     </row>
     <row r="945">
       <c r="A945" s="5"/>
       <c r="F945" s="5"/>
+      <c r="J945" s="5"/>
+      <c r="K945" s="5"/>
     </row>
     <row r="946">
       <c r="A946" s="5"/>
       <c r="F946" s="5"/>
+      <c r="J946" s="5"/>
+      <c r="K946" s="5"/>
     </row>
     <row r="947">
       <c r="A947" s="5"/>
       <c r="F947" s="5"/>
+      <c r="J947" s="5"/>
+      <c r="K947" s="5"/>
     </row>
     <row r="948">
       <c r="A948" s="5"/>
       <c r="F948" s="5"/>
+      <c r="J948" s="5"/>
+      <c r="K948" s="5"/>
     </row>
     <row r="949">
       <c r="A949" s="5"/>
       <c r="F949" s="5"/>
+      <c r="J949" s="5"/>
+      <c r="K949" s="5"/>
     </row>
     <row r="950">
       <c r="A950" s="5"/>
       <c r="F950" s="5"/>
+      <c r="J950" s="5"/>
+      <c r="K950" s="5"/>
     </row>
     <row r="951">
       <c r="A951" s="5"/>
       <c r="F951" s="5"/>
+      <c r="J951" s="5"/>
+      <c r="K951" s="5"/>
     </row>
     <row r="952">
       <c r="A952" s="5"/>
       <c r="F952" s="5"/>
+      <c r="J952" s="5"/>
+      <c r="K952" s="5"/>
     </row>
     <row r="953">
       <c r="A953" s="5"/>
       <c r="F953" s="5"/>
+      <c r="J953" s="5"/>
+      <c r="K953" s="5"/>
     </row>
     <row r="954">
       <c r="A954" s="5"/>
       <c r="F954" s="5"/>
+      <c r="J954" s="5"/>
+      <c r="K954" s="5"/>
     </row>
     <row r="955">
       <c r="A955" s="5"/>
       <c r="F955" s="5"/>
+      <c r="J955" s="5"/>
+      <c r="K955" s="5"/>
     </row>
     <row r="956">
       <c r="A956" s="5"/>
       <c r="F956" s="5"/>
+      <c r="J956" s="5"/>
+      <c r="K956" s="5"/>
     </row>
     <row r="957">
       <c r="A957" s="5"/>
       <c r="F957" s="5"/>
+      <c r="J957" s="5"/>
+      <c r="K957" s="5"/>
     </row>
     <row r="958">
       <c r="A958" s="5"/>
       <c r="F958" s="5"/>
+      <c r="J958" s="5"/>
+      <c r="K958" s="5"/>
     </row>
     <row r="959">
       <c r="A959" s="5"/>
       <c r="F959" s="5"/>
+      <c r="J959" s="5"/>
+      <c r="K959" s="5"/>
     </row>
     <row r="960">
       <c r="A960" s="5"/>
       <c r="F960" s="5"/>
+      <c r="J960" s="5"/>
+      <c r="K960" s="5"/>
     </row>
     <row r="961">
       <c r="A961" s="5"/>
       <c r="F961" s="5"/>
+      <c r="J961" s="5"/>
+      <c r="K961" s="5"/>
     </row>
     <row r="962">
       <c r="A962" s="5"/>
       <c r="F962" s="5"/>
+      <c r="J962" s="5"/>
+      <c r="K962" s="5"/>
     </row>
     <row r="963">
       <c r="A963" s="5"/>
       <c r="F963" s="5"/>
+      <c r="J963" s="5"/>
+      <c r="K963" s="5"/>
     </row>
     <row r="964">
       <c r="A964" s="5"/>
       <c r="F964" s="5"/>
+      <c r="J964" s="5"/>
+      <c r="K964" s="5"/>
     </row>
     <row r="965">
       <c r="A965" s="5"/>
       <c r="F965" s="5"/>
+      <c r="J965" s="5"/>
+      <c r="K965" s="5"/>
     </row>
     <row r="966">
       <c r="A966" s="5"/>
       <c r="F966" s="5"/>
+      <c r="J966" s="5"/>
+      <c r="K966" s="5"/>
     </row>
     <row r="967">
       <c r="A967" s="5"/>
       <c r="F967" s="5"/>
+      <c r="J967" s="5"/>
+      <c r="K967" s="5"/>
     </row>
     <row r="968">
       <c r="A968" s="5"/>
       <c r="F968" s="5"/>
+      <c r="J968" s="5"/>
+      <c r="K968" s="5"/>
     </row>
     <row r="969">
       <c r="A969" s="5"/>
       <c r="F969" s="5"/>
+      <c r="J969" s="5"/>
+      <c r="K969" s="5"/>
     </row>
     <row r="970">
       <c r="A970" s="5"/>
       <c r="F970" s="5"/>
+      <c r="J970" s="5"/>
+      <c r="K970" s="5"/>
     </row>
     <row r="971">
       <c r="A971" s="5"/>
       <c r="F971" s="5"/>
+      <c r="J971" s="5"/>
+      <c r="K971" s="5"/>
     </row>
     <row r="972">
       <c r="A972" s="5"/>
       <c r="F972" s="5"/>
+      <c r="J972" s="5"/>
+      <c r="K972" s="5"/>
     </row>
     <row r="973">
       <c r="A973" s="5"/>
       <c r="F973" s="5"/>
+      <c r="J973" s="5"/>
+      <c r="K973" s="5"/>
     </row>
     <row r="974">
       <c r="A974" s="5"/>
       <c r="F974" s="5"/>
+      <c r="J974" s="5"/>
+      <c r="K974" s="5"/>
     </row>
     <row r="975">
       <c r="A975" s="5"/>
       <c r="F975" s="5"/>
+      <c r="J975" s="5"/>
+      <c r="K975" s="5"/>
     </row>
     <row r="976">
       <c r="A976" s="5"/>
       <c r="F976" s="5"/>
+      <c r="J976" s="5"/>
+      <c r="K976" s="5"/>
     </row>
     <row r="977">
       <c r="A977" s="5"/>
       <c r="F977" s="5"/>
+      <c r="J977" s="5"/>
+      <c r="K977" s="5"/>
     </row>
     <row r="978">
       <c r="A978" s="5"/>
       <c r="F978" s="5"/>
+      <c r="J978" s="5"/>
+      <c r="K978" s="5"/>
     </row>
     <row r="979">
       <c r="A979" s="5"/>
       <c r="F979" s="5"/>
+      <c r="J979" s="5"/>
+      <c r="K979" s="5"/>
     </row>
     <row r="980">
       <c r="A980" s="5"/>
       <c r="F980" s="5"/>
+      <c r="J980" s="5"/>
+      <c r="K980" s="5"/>
     </row>
     <row r="981">
       <c r="A981" s="5"/>
       <c r="F981" s="5"/>
+      <c r="J981" s="5"/>
+      <c r="K981" s="5"/>
     </row>
     <row r="982">
       <c r="A982" s="5"/>
       <c r="F982" s="5"/>
+      <c r="J982" s="5"/>
+      <c r="K982" s="5"/>
     </row>
     <row r="983">
       <c r="A983" s="5"/>
       <c r="F983" s="5"/>
+      <c r="J983" s="5"/>
+      <c r="K983" s="5"/>
     </row>
     <row r="984">
       <c r="A984" s="5"/>
       <c r="F984" s="5"/>
+      <c r="J984" s="5"/>
+      <c r="K984" s="5"/>
     </row>
     <row r="985">
       <c r="A985" s="5"/>
       <c r="F985" s="5"/>
+      <c r="J985" s="5"/>
+      <c r="K985" s="5"/>
     </row>
     <row r="986">
       <c r="A986" s="5"/>
       <c r="F986" s="5"/>
+      <c r="J986" s="5"/>
+      <c r="K986" s="5"/>
     </row>
     <row r="987">
       <c r="A987" s="5"/>
       <c r="F987" s="5"/>
+      <c r="J987" s="5"/>
+      <c r="K987" s="5"/>
     </row>
     <row r="988">
       <c r="A988" s="5"/>
       <c r="F988" s="5"/>
+      <c r="J988" s="5"/>
+      <c r="K988" s="5"/>
     </row>
     <row r="989">
       <c r="A989" s="5"/>
       <c r="F989" s="5"/>
+      <c r="J989" s="5"/>
+      <c r="K989" s="5"/>
     </row>
     <row r="990">
       <c r="A990" s="5"/>
       <c r="F990" s="5"/>
+      <c r="J990" s="5"/>
+      <c r="K990" s="5"/>
     </row>
     <row r="991">
       <c r="A991" s="5"/>
       <c r="F991" s="5"/>
+      <c r="J991" s="5"/>
+      <c r="K991" s="5"/>
     </row>
     <row r="992">
       <c r="A992" s="5"/>
       <c r="F992" s="5"/>
+      <c r="J992" s="5"/>
+      <c r="K992" s="5"/>
     </row>
     <row r="993">
       <c r="A993" s="5"/>
       <c r="F993" s="5"/>
+      <c r="J993" s="5"/>
+      <c r="K993" s="5"/>
     </row>
     <row r="994">
       <c r="A994" s="5"/>
       <c r="F994" s="5"/>
+      <c r="J994" s="5"/>
+      <c r="K994" s="5"/>
     </row>
     <row r="995">
       <c r="A995" s="5"/>
       <c r="F995" s="5"/>
+      <c r="J995" s="5"/>
+      <c r="K995" s="5"/>
     </row>
     <row r="996">
       <c r="A996" s="5"/>
       <c r="F996" s="5"/>
+      <c r="J996" s="5"/>
+      <c r="K996" s="5"/>
     </row>
     <row r="997">
       <c r="A997" s="5"/>
       <c r="F997" s="5"/>
+      <c r="J997" s="5"/>
+      <c r="K997" s="5"/>
     </row>
     <row r="998">
       <c r="A998" s="5"/>
       <c r="F998" s="5"/>
+      <c r="J998" s="5"/>
+      <c r="K998" s="5"/>
     </row>
     <row r="999">
       <c r="A999" s="5"/>
       <c r="F999" s="5"/>
+      <c r="J999" s="5"/>
+      <c r="K999" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -26031,13 +28096,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -26045,7 +28110,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8">
         <v>0.0</v>
@@ -26059,7 +28124,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8">
         <v>0.0</v>
@@ -26073,7 +28138,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
@@ -26087,7 +28152,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
@@ -26101,7 +28166,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
         <v>1.0</v>
@@ -26115,7 +28180,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
@@ -26129,7 +28194,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
@@ -26143,7 +28208,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8">
         <v>0.0</v>
@@ -26157,7 +28222,7 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
@@ -26171,7 +28236,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8">
         <v>0.0</v>
@@ -26185,7 +28250,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
@@ -26199,7 +28264,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -26213,7 +28278,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8">
         <v>0.5</v>
@@ -26227,7 +28292,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
@@ -26241,7 +28306,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
         <v>0.0</v>
@@ -26255,7 +28320,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
@@ -26269,7 +28334,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
@@ -26283,7 +28348,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8">
         <v>1.0</v>
@@ -26297,7 +28362,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
@@ -26311,7 +28376,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
@@ -26325,7 +28390,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8">
         <v>0.0</v>
@@ -26339,7 +28404,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
@@ -26353,7 +28418,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8">
         <v>0.5</v>
@@ -26367,7 +28432,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
@@ -26381,7 +28446,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
@@ -26395,7 +28460,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="8">
         <v>0.5</v>
@@ -26428,13 +28493,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -26442,7 +28507,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8">
         <v>0.0</v>
@@ -26456,7 +28521,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8">
         <v>1.0</v>
@@ -26470,7 +28535,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8">
         <v>0.0</v>
@@ -26484,7 +28549,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8">
         <v>0.0</v>
@@ -26498,13 +28563,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
         <v>1.0</v>
       </c>
-      <c r="D6" s="8">
-        <v>3.0</v>
+      <c r="D6" s="7">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -26512,7 +28577,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
         <v>0.0</v>
@@ -26526,7 +28591,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8">
         <v>0.0</v>
@@ -26540,7 +28605,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="8">
         <v>1.0</v>
@@ -26554,13 +28619,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8">
         <v>0.0</v>
       </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
+      <c r="D10" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -26568,7 +28633,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8">
         <v>1.0</v>
@@ -26582,7 +28647,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8">
         <v>0.0</v>
@@ -26596,7 +28661,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8">
         <v>0.0</v>
@@ -26610,7 +28675,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8">
         <v>0.0</v>
@@ -26624,7 +28689,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8">
         <v>0.0</v>
@@ -26638,7 +28703,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
         <v>1.0</v>
@@ -26652,7 +28717,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8">
         <v>0.0</v>
@@ -26666,7 +28731,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8">
         <v>0.0</v>
@@ -26680,7 +28745,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8">
         <v>1.0</v>
@@ -26694,7 +28759,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8">
         <v>0.0</v>
@@ -26708,7 +28773,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8">
         <v>0.0</v>
@@ -26722,7 +28787,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8">
         <v>1.0</v>
@@ -26736,7 +28801,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8">
         <v>0.0</v>
@@ -26750,7 +28815,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8">
         <v>1.0</v>
@@ -26764,7 +28829,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8">
         <v>0.0</v>
@@ -26778,7 +28843,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8">
         <v>0.0</v>
@@ -26792,7 +28857,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="8">
         <v>1.0</v>
@@ -26825,13 +28890,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -26839,7 +28904,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="17">
         <v>0.8</v>
@@ -26856,7 +28921,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="17">
         <v>0.8</v>
@@ -26873,7 +28938,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="17">
         <v>0.8</v>
@@ -26890,7 +28955,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="17">
         <v>0.8</v>
@@ -26907,7 +28972,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17">
         <v>0.6</v>
@@ -26924,7 +28989,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="17">
         <v>0.8</v>
@@ -26941,7 +29006,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="17">
         <v>0.8</v>
@@ -26958,7 +29023,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="17">
         <v>0.6</v>
@@ -26975,7 +29040,7 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="17">
         <v>0.8</v>
@@ -26992,7 +29057,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17">
         <v>0.6</v>
@@ -27009,7 +29074,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17">
         <v>0.8</v>
@@ -27026,7 +29091,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="17">
         <v>0.8</v>
@@ -27043,7 +29108,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17">
         <v>0.2</v>
@@ -27060,7 +29125,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="17">
         <v>1.0</v>
@@ -27077,7 +29142,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="17">
         <v>0.8</v>
@@ -27094,7 +29159,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="17">
         <v>1.0</v>
@@ -27111,7 +29176,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="17">
         <v>1.0</v>
@@ -27128,7 +29193,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="17">
         <v>0.8</v>
@@ -27145,7 +29210,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="17">
         <v>1.0</v>
@@ -27162,7 +29227,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="17">
         <v>1.0</v>
@@ -27179,7 +29244,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="17">
         <v>0.8</v>
@@ -27196,7 +29261,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="17">
         <v>1.0</v>
@@ -27213,7 +29278,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="17">
         <v>0.6</v>
@@ -27230,7 +29295,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="17">
         <v>1.0</v>
@@ -27247,7 +29312,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="17">
         <v>1.0</v>
@@ -27264,7 +29329,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" s="17">
         <v>0.6</v>
@@ -27296,13 +29361,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/data/data_prepared.xlsx
+++ b/data/data_prepared.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
   <si>
     <t>tools</t>
   </si>
@@ -147,19 +147,25 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Board A (level=2)</t>
+    <t>Max. depth = 4 (Personal)</t>
   </si>
   <si>
-    <t>Board C (level=5)</t>
+    <t>Max. depth = 2 (Board A)</t>
   </si>
   <si>
-    <t>Board B (level=3)</t>
+    <t>Max. depth = 3 (Personal)</t>
   </si>
   <si>
-    <t>Personal (level=2)</t>
+    <t>Max. depth = 5 (Board C)</t>
   </si>
   <si>
-    <t>Personal (level=4)</t>
+    <t>Max. depth = 2 (Personal)</t>
+  </si>
+  <si>
+    <t>Max. depth = 3 (Board B)</t>
+  </si>
+  <si>
+    <t>Max. depth = 5 (Personal)</t>
   </si>
   <si>
     <t>2_1_finish_date_est</t>
@@ -1319,13 +1325,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -1530,25 +1536,25 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1942,13 +1948,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -18492,9 +18498,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="1" max="2" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="22.57"/>
+    <col customWidth="1" min="4" max="4" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18502,9 +18508,12 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18516,7 +18525,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -18524,10 +18536,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -18535,10 +18550,13 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -18546,10 +18564,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -18557,10 +18578,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -18568,10 +18592,13 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -18579,10 +18606,13 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -18590,10 +18620,13 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -18601,10 +18634,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -18612,10 +18648,13 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -18623,10 +18662,13 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -18634,10 +18676,13 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -18645,3951 +18690,4939 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
+      <c r="C467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
+      <c r="C470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
+      <c r="C473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
+      <c r="C481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
+      <c r="C493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
+      <c r="C496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
+      <c r="C498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
+      <c r="C500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
+      <c r="C506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
+      <c r="C507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
+      <c r="C508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
+      <c r="C509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
+      <c r="C510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
+      <c r="C541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
+      <c r="C543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
+      <c r="C545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
+      <c r="C547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
+      <c r="C548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
+      <c r="C549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
+      <c r="C550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
+      <c r="C552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
+      <c r="C600" s="3"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
+      <c r="C602" s="3"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
+      <c r="C603" s="3"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
+      <c r="C604" s="3"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
+      <c r="C608" s="3"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
+      <c r="C610" s="3"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
+      <c r="C611" s="3"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
+      <c r="C612" s="3"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
+      <c r="C614" s="3"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
+      <c r="C615" s="3"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
+      <c r="C616" s="3"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
+      <c r="C618" s="3"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
+      <c r="C619" s="3"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
+      <c r="C620" s="3"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
+      <c r="C621" s="3"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
+      <c r="C622" s="3"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
+      <c r="C624" s="3"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
+      <c r="C625" s="3"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
+      <c r="C626" s="3"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
+      <c r="C628" s="3"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
+      <c r="C630" s="3"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
+      <c r="C631" s="3"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
+      <c r="C632" s="3"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
+      <c r="C634" s="3"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
+      <c r="C635" s="3"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
+      <c r="C636" s="3"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
+      <c r="C637" s="3"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
+      <c r="C638" s="3"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
+      <c r="C639" s="3"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
+      <c r="C640" s="3"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
+      <c r="C641" s="3"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
+      <c r="C642" s="3"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
+      <c r="C643" s="3"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
+      <c r="C644" s="3"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
+      <c r="C645" s="3"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
+      <c r="C646" s="3"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
+      <c r="C650" s="3"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
+      <c r="C651" s="3"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
+      <c r="C653" s="3"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
+      <c r="C654" s="3"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
+      <c r="C655" s="3"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
+      <c r="C659" s="3"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
+      <c r="C660" s="3"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
+      <c r="C661" s="3"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
+      <c r="C662" s="3"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
+      <c r="C663" s="3"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
+      <c r="C664" s="3"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
+      <c r="C665" s="3"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
+      <c r="C666" s="3"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
+      <c r="C667" s="3"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
+      <c r="C668" s="3"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
+      <c r="C669" s="3"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
+      <c r="C670" s="3"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
+      <c r="C671" s="3"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
+      <c r="C672" s="3"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
+      <c r="C673" s="3"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
+      <c r="C674" s="3"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
+      <c r="C675" s="3"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
+      <c r="C676" s="3"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
+      <c r="C677" s="3"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
+      <c r="C678" s="3"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
+      <c r="C679" s="3"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
+      <c r="C680" s="3"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
+      <c r="C681" s="3"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
+      <c r="C682" s="3"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
+      <c r="C683" s="3"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
+      <c r="C684" s="3"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
+      <c r="C685" s="3"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
+      <c r="C686" s="3"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
+      <c r="C687" s="3"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
+      <c r="C688" s="3"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
+      <c r="C689" s="3"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
+      <c r="C690" s="3"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
+      <c r="C691" s="3"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
+      <c r="C692" s="3"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
+      <c r="C693" s="3"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
+      <c r="C694" s="3"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
+      <c r="C695" s="3"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
+      <c r="C696" s="3"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
+      <c r="C697" s="3"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
+      <c r="C698" s="3"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
+      <c r="C699" s="3"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
+      <c r="C700" s="3"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
+      <c r="C701" s="3"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
+      <c r="C702" s="3"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
+      <c r="C703" s="3"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
+      <c r="C704" s="3"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
+      <c r="C705" s="3"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
+      <c r="C706" s="3"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
+      <c r="C707" s="3"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
+      <c r="C708" s="3"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
+      <c r="C709" s="3"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
+      <c r="C710" s="3"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
+      <c r="C711" s="3"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
+      <c r="C712" s="3"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
+      <c r="C713" s="3"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
+      <c r="C714" s="3"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
+      <c r="C715" s="3"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
+      <c r="C716" s="3"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
+      <c r="C717" s="3"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
+      <c r="C718" s="3"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
+      <c r="C719" s="3"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
+      <c r="C720" s="3"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
+      <c r="C721" s="3"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
+      <c r="C722" s="3"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
+      <c r="C723" s="3"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
+      <c r="C724" s="3"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
+      <c r="C725" s="3"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
+      <c r="C726" s="3"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
+      <c r="C727" s="3"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
+      <c r="C728" s="3"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
+      <c r="C729" s="3"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
+      <c r="C730" s="3"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
+      <c r="C731" s="3"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
+      <c r="C732" s="3"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
+      <c r="C733" s="3"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
+      <c r="C734" s="3"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
+      <c r="C735" s="3"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
+      <c r="C736" s="3"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
+      <c r="C737" s="3"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
+      <c r="C738" s="3"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
+      <c r="C739" s="3"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
+      <c r="C740" s="3"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
+      <c r="C741" s="3"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
+      <c r="C742" s="3"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
+      <c r="C743" s="3"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
+      <c r="C744" s="3"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
+      <c r="C745" s="3"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
+      <c r="C746" s="3"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
+      <c r="C747" s="3"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
+      <c r="C748" s="3"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
+      <c r="C749" s="3"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
+      <c r="C750" s="3"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
+      <c r="C751" s="3"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
+      <c r="C752" s="3"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
+      <c r="C753" s="3"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
+      <c r="C754" s="3"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
+      <c r="C755" s="3"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
+      <c r="C756" s="3"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
+      <c r="C757" s="3"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
+      <c r="C758" s="3"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
+      <c r="C759" s="3"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
+      <c r="C760" s="3"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
+      <c r="C761" s="3"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
+      <c r="C762" s="3"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
+      <c r="C763" s="3"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
+      <c r="C764" s="3"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
+      <c r="C765" s="3"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
+      <c r="C766" s="3"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
+      <c r="C767" s="3"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
+      <c r="C768" s="3"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
+      <c r="C769" s="3"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
+      <c r="C770" s="3"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
+      <c r="C771" s="3"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
+      <c r="C772" s="3"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
+      <c r="C773" s="3"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
+      <c r="C774" s="3"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
+      <c r="C775" s="3"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
+      <c r="C776" s="3"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
+      <c r="C777" s="3"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
+      <c r="C778" s="3"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
+      <c r="C779" s="3"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
+      <c r="C780" s="3"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
+      <c r="C781" s="3"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
+      <c r="C782" s="3"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
+      <c r="C783" s="3"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
+      <c r="C784" s="3"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
+      <c r="C785" s="3"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
+      <c r="C786" s="3"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
+      <c r="C787" s="3"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
+      <c r="C788" s="3"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
+      <c r="C789" s="3"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
+      <c r="C790" s="3"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
+      <c r="C791" s="3"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
+      <c r="C792" s="3"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
+      <c r="C793" s="3"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
+      <c r="C794" s="3"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
+      <c r="C795" s="3"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
+      <c r="C796" s="3"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
+      <c r="C797" s="3"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
+      <c r="C798" s="3"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
+      <c r="C799" s="3"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
+      <c r="C800" s="3"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
+      <c r="C801" s="3"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
+      <c r="C802" s="3"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
+      <c r="C803" s="3"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
+      <c r="C804" s="3"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
+      <c r="C805" s="3"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
+      <c r="C806" s="3"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
+      <c r="C807" s="3"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
+      <c r="C808" s="3"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
+      <c r="C809" s="3"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
+      <c r="C810" s="3"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
+      <c r="C811" s="3"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
+      <c r="C812" s="3"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
+      <c r="C813" s="3"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
+      <c r="C814" s="3"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
+      <c r="C815" s="3"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
+      <c r="C816" s="3"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
+      <c r="C817" s="3"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
+      <c r="C818" s="3"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
+      <c r="C819" s="3"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
+      <c r="C820" s="3"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
+      <c r="C821" s="3"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
+      <c r="C822" s="3"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
+      <c r="C823" s="3"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
+      <c r="C824" s="3"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
+      <c r="C825" s="3"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
+      <c r="C826" s="3"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
+      <c r="C827" s="3"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
+      <c r="C828" s="3"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
+      <c r="C829" s="3"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
+      <c r="C830" s="3"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
+      <c r="C831" s="3"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
+      <c r="C832" s="3"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
+      <c r="C833" s="3"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
+      <c r="C834" s="3"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
+      <c r="C835" s="3"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
+      <c r="C836" s="3"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
+      <c r="C837" s="3"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
+      <c r="C838" s="3"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
+      <c r="C839" s="3"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
+      <c r="C840" s="3"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
+      <c r="C841" s="3"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
+      <c r="C842" s="3"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
+      <c r="C843" s="3"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
+      <c r="C844" s="3"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
+      <c r="C845" s="3"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
+      <c r="C846" s="3"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
+      <c r="C847" s="3"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
+      <c r="C848" s="3"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
+      <c r="C849" s="3"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
+      <c r="C850" s="3"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
+      <c r="C851" s="3"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
+      <c r="C852" s="3"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
+      <c r="C853" s="3"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
+      <c r="C854" s="3"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
+      <c r="C855" s="3"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
+      <c r="C856" s="3"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
+      <c r="C857" s="3"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
+      <c r="C858" s="3"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
+      <c r="C859" s="3"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
+      <c r="C860" s="3"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
+      <c r="C861" s="3"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
+      <c r="C862" s="3"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
+      <c r="C863" s="3"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
+      <c r="C864" s="3"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
+      <c r="C865" s="3"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
+      <c r="C866" s="3"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
+      <c r="C867" s="3"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
+      <c r="C868" s="3"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
+      <c r="C869" s="3"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
+      <c r="C870" s="3"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
+      <c r="C871" s="3"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
+      <c r="C872" s="3"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
+      <c r="C873" s="3"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
+      <c r="C874" s="3"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
+      <c r="C875" s="3"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
+      <c r="C876" s="3"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
+      <c r="C877" s="3"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
+      <c r="C878" s="3"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
+      <c r="C879" s="3"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
+      <c r="C880" s="3"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
+      <c r="C881" s="3"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
+      <c r="C882" s="3"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
+      <c r="C883" s="3"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
+      <c r="C884" s="3"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
+      <c r="C885" s="3"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
+      <c r="C886" s="3"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
+      <c r="C887" s="3"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
+      <c r="C888" s="3"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
+      <c r="C889" s="3"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
+      <c r="C890" s="3"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
+      <c r="C891" s="3"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
+      <c r="C892" s="3"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
+      <c r="C893" s="3"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
+      <c r="C894" s="3"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
+      <c r="C895" s="3"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
+      <c r="C896" s="3"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
+      <c r="C897" s="3"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
+      <c r="C898" s="3"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
+      <c r="C899" s="3"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
+      <c r="C900" s="3"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
+      <c r="C901" s="3"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
+      <c r="C902" s="3"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
+      <c r="C903" s="3"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
+      <c r="C904" s="3"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
+      <c r="C905" s="3"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
+      <c r="C906" s="3"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
+      <c r="C907" s="3"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
+      <c r="C908" s="3"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
+      <c r="C909" s="3"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
+      <c r="C910" s="3"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
+      <c r="C911" s="3"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
+      <c r="C912" s="3"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
+      <c r="C913" s="3"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
+      <c r="C914" s="3"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
+      <c r="C915" s="3"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
+      <c r="C916" s="3"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
+      <c r="C917" s="3"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
+      <c r="C918" s="3"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
+      <c r="C919" s="3"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
+      <c r="C920" s="3"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
+      <c r="C921" s="3"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
+      <c r="C922" s="3"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
+      <c r="C923" s="3"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
+      <c r="C924" s="3"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
+      <c r="C925" s="3"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
+      <c r="C926" s="3"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
+      <c r="C927" s="3"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
+      <c r="C928" s="3"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
+      <c r="C929" s="3"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
+      <c r="C930" s="3"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
+      <c r="C931" s="3"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
+      <c r="C932" s="3"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
+      <c r="C933" s="3"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
+      <c r="C934" s="3"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
+      <c r="C935" s="3"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
+      <c r="C936" s="3"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
+      <c r="C937" s="3"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
+      <c r="C938" s="3"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
+      <c r="C939" s="3"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
+      <c r="C940" s="3"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
+      <c r="C941" s="3"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
+      <c r="C942" s="3"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
+      <c r="C943" s="3"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
+      <c r="C944" s="3"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
+      <c r="C945" s="3"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
+      <c r="C946" s="3"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
+      <c r="C947" s="3"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
+      <c r="C948" s="3"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
+      <c r="C949" s="3"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
+      <c r="C950" s="3"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
+      <c r="C951" s="3"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
+      <c r="C952" s="3"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
+      <c r="C953" s="3"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
+      <c r="C954" s="3"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
+      <c r="C955" s="3"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
+      <c r="C956" s="3"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
+      <c r="C957" s="3"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
+      <c r="C958" s="3"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
+      <c r="C959" s="3"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
+      <c r="C960" s="3"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
+      <c r="C961" s="3"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
+      <c r="C962" s="3"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
+      <c r="C963" s="3"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
+      <c r="C964" s="3"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
+      <c r="C965" s="3"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
+      <c r="C966" s="3"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
+      <c r="C967" s="3"/>
     </row>
     <row r="968">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
+      <c r="C968" s="3"/>
     </row>
     <row r="969">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
+      <c r="C969" s="3"/>
     </row>
     <row r="970">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
+      <c r="C970" s="3"/>
     </row>
     <row r="971">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
+      <c r="C971" s="3"/>
     </row>
     <row r="972">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
+      <c r="C972" s="3"/>
     </row>
     <row r="973">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
+      <c r="C973" s="3"/>
     </row>
     <row r="974">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
+      <c r="C974" s="3"/>
     </row>
     <row r="975">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
+      <c r="C975" s="3"/>
     </row>
     <row r="976">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
+      <c r="C976" s="3"/>
     </row>
     <row r="977">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
+      <c r="C977" s="3"/>
     </row>
     <row r="978">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
+      <c r="C978" s="3"/>
     </row>
     <row r="979">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
+      <c r="C979" s="3"/>
     </row>
     <row r="980">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
+      <c r="C980" s="3"/>
     </row>
     <row r="981">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
+      <c r="C981" s="3"/>
     </row>
     <row r="982">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
+      <c r="C982" s="3"/>
     </row>
     <row r="983">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
+      <c r="C983" s="3"/>
     </row>
     <row r="984">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
+      <c r="C984" s="3"/>
     </row>
     <row r="985">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
+      <c r="C985" s="3"/>
     </row>
     <row r="986">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
+      <c r="C986" s="3"/>
     </row>
     <row r="987">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
+      <c r="C987" s="3"/>
     </row>
     <row r="988">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
+      <c r="C988" s="3"/>
     </row>
     <row r="989">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
+      <c r="C989" s="3"/>
     </row>
     <row r="990">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
+      <c r="C990" s="3"/>
     </row>
     <row r="991">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
+      <c r="C991" s="3"/>
     </row>
     <row r="992">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
+      <c r="C992" s="3"/>
     </row>
     <row r="993">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
+      <c r="C993" s="3"/>
     </row>
     <row r="994">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
+      <c r="C994" s="3"/>
     </row>
     <row r="995">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
+      <c r="C995" s="3"/>
     </row>
     <row r="996">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
+      <c r="C996" s="3"/>
     </row>
     <row r="997">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
+      <c r="C997" s="3"/>
     </row>
     <row r="998">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
+      <c r="C998" s="3"/>
     </row>
     <row r="999">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22622,34 +23655,34 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -29041,13 +30074,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -29055,7 +30088,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10">
         <v>0.0</v>
@@ -29069,7 +30102,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10">
         <v>0.0</v>
@@ -29083,7 +30116,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10">
         <v>0.0</v>
@@ -29097,7 +30130,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10">
         <v>0.0</v>
@@ -29111,7 +30144,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10">
         <v>1.0</v>
@@ -29125,7 +30158,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10">
         <v>0.0</v>
@@ -29139,7 +30172,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10">
         <v>0.0</v>
@@ -29153,7 +30186,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10">
         <v>0.0</v>
@@ -29167,7 +30200,7 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10">
         <v>0.0</v>
@@ -29181,7 +30214,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10">
         <v>0.0</v>
@@ -29195,7 +30228,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10">
         <v>0.0</v>
@@ -29209,7 +30242,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>0.0</v>
@@ -29223,7 +30256,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10">
         <v>0.5</v>
@@ -29237,7 +30270,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10">
         <v>0.0</v>
@@ -29251,7 +30284,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10">
         <v>0.0</v>
@@ -29265,7 +30298,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10">
         <v>0.0</v>
@@ -29279,7 +30312,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="10">
         <v>0.0</v>
@@ -29293,7 +30326,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10">
         <v>1.0</v>
@@ -29307,7 +30340,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10">
         <v>0.0</v>
@@ -29321,7 +30354,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="10">
         <v>0.0</v>
@@ -29335,7 +30368,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="10">
         <v>0.0</v>
@@ -29349,7 +30382,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10">
         <v>0.0</v>
@@ -29363,7 +30396,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="10">
         <v>0.5</v>
@@ -29377,7 +30410,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10">
         <v>0.0</v>
@@ -29391,7 +30424,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="10">
         <v>0.0</v>
@@ -29405,7 +30438,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="10">
         <v>0.5</v>
@@ -29438,13 +30471,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -29452,7 +30485,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10">
         <v>0.0</v>
@@ -29466,7 +30499,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10">
         <v>1.0</v>
@@ -29480,7 +30513,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10">
         <v>0.0</v>
@@ -29494,7 +30527,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="10">
         <v>0.0</v>
@@ -29508,7 +30541,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="10">
         <v>1.0</v>
@@ -29522,7 +30555,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10">
         <v>0.0</v>
@@ -29536,7 +30569,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10">
         <v>0.0</v>
@@ -29550,7 +30583,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10">
         <v>1.0</v>
@@ -29564,7 +30597,7 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10">
         <v>0.0</v>
@@ -29578,7 +30611,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10">
         <v>1.0</v>
@@ -29592,7 +30625,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10">
         <v>0.0</v>
@@ -29606,7 +30639,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10">
         <v>0.0</v>
@@ -29620,7 +30653,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10">
         <v>0.0</v>
@@ -29634,7 +30667,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10">
         <v>0.0</v>
@@ -29648,7 +30681,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10">
         <v>1.0</v>
@@ -29662,7 +30695,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10">
         <v>0.0</v>
@@ -29676,7 +30709,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="10">
         <v>0.0</v>
@@ -29690,7 +30723,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10">
         <v>1.0</v>
@@ -29704,7 +30737,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10">
         <v>0.0</v>
@@ -29718,7 +30751,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="10">
         <v>0.0</v>
@@ -29732,7 +30765,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="10">
         <v>1.0</v>
@@ -29746,7 +30779,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="10">
         <v>0.0</v>
@@ -29760,7 +30793,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="10">
         <v>1.0</v>
@@ -29774,7 +30807,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10">
         <v>0.0</v>
@@ -29788,7 +30821,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="10">
         <v>0.0</v>
@@ -29802,7 +30835,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="10">
         <v>1.0</v>
@@ -29835,13 +30868,13 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -29849,7 +30882,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="19">
         <v>0.8</v>
@@ -29866,7 +30899,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="19">
         <v>0.8</v>
@@ -29883,7 +30916,7 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19">
         <v>0.8</v>
@@ -29900,7 +30933,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="19">
         <v>0.8</v>
@@ -29917,7 +30950,7 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="19">
         <v>0.6</v>
@@ -29934,7 +30967,7 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="19">
         <v>0.8</v>
@@ -29951,7 +30984,7 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="19">
         <v>0.8</v>
@@ -29968,7 +31001,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="19">
         <v>0.6</v>
@@ -29985,7 +31018,7 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="19">
         <v>0.8</v>
@@ -30002,7 +31035,7 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="19">
         <v>0.6</v>
@@ -30019,7 +31052,7 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="19">
         <v>0.8</v>
@@ -30036,7 +31069,7 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="19">
         <v>0.8</v>
@@ -30053,7 +31086,7 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="19">
         <v>0.2</v>
@@ -30070,7 +31103,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="19">
         <v>1.0</v>
@@ -30087,7 +31120,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="19">
         <v>0.8</v>
@@ -30104,7 +31137,7 @@
         <v>4.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="19">
         <v>1.0</v>
@@ -30121,7 +31154,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="19">
         <v>1.0</v>
@@ -30138,7 +31171,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="19">
         <v>0.8</v>
@@ -30155,7 +31188,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" s="19">
         <v>1.0</v>
@@ -30172,7 +31205,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="19">
         <v>1.0</v>
@@ -30189,7 +31222,7 @@
         <v>9.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="19">
         <v>0.8</v>
@@ -30206,7 +31239,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="19">
         <v>1.0</v>
@@ -30223,7 +31256,7 @@
         <v>11.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="19">
         <v>0.6</v>
@@ -30240,7 +31273,7 @@
         <v>12.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19">
         <v>1.0</v>
@@ -30257,7 +31290,7 @@
         <v>13.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19">
         <v>1.0</v>
@@ -30274,7 +31307,7 @@
         <v>14.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="19">
         <v>0.6</v>
